--- a/data/relief_data/2021.xlsx
+++ b/data/relief_data/2021.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>alaniz_r</t>
+          <t>alaniz_r. j.</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>alexy_a</t>
+          <t>alexy_a. j.</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.492307692307692</v>
+        <v>2.630769230769231</v>
       </c>
       <c r="D56" t="n">
         <v>1.138461538461538</v>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>bukauskas_j</t>
+          <t>bukauskas_j. b.</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>chargois_j</t>
+          <t>chargois_j. t.</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>cole_a</t>
+          <t>cole_a. j.</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>feyereisen_j</t>
+          <t>feyereisen_j. p.</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>5.533783783783784</v>
+        <v>5.452702702702703</v>
       </c>
       <c r="D249" t="n">
         <v>1.689189189189189</v>
@@ -9653,7 +9653,7 @@
         <v>5.121621621621622</v>
       </c>
       <c r="J249" t="n">
-        <v>0.4459459459459459</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="K249" t="n">
         <v>-0.1486486486486487</v>
@@ -11926,7 +11926,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3.123287671232877</v>
+        <v>3.328767123287671</v>
       </c>
       <c r="D311" t="n">
         <v>1.794520547945206</v>
@@ -12222,31 +12222,31 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>6.75</v>
+        <v>2.25</v>
       </c>
       <c r="D319" t="n">
-        <v>3.083333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="E319" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="F319" t="n">
+        <v>1</v>
+      </c>
+      <c r="G319" t="n">
         <v>0.5</v>
       </c>
-      <c r="G319" t="n">
-        <v>0.4166666666666667</v>
-      </c>
       <c r="H319" t="n">
-        <v>0.1257575757575758</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I319" t="n">
-        <v>4.166666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="J319" t="n">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="K319" t="n">
-        <v>-2.166666666666667</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="320">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>hammer_j</t>
+          <t>hammer_j. d.</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>happ_j</t>
+          <t>happ_j. a.</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -13295,7 +13295,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2.94</v>
+        <v>3.42</v>
       </c>
       <c r="D348" t="n">
         <v>1.226666666666667</v>
@@ -14294,7 +14294,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>3.38135593220339</v>
+        <v>3.788135593220339</v>
       </c>
       <c r="D375" t="n">
         <v>1.559322033898305</v>
@@ -14315,7 +14315,7 @@
         <v>4.847457627118644</v>
       </c>
       <c r="J375" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="K375" t="n">
         <v>0.3220338983050847</v>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>mcfarland_t</t>
+          <t>mcfarland_t. j.</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -19507,7 +19507,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>mejía_j</t>
+          <t>mejía_j. c.</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -20210,7 +20210,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>minter_a</t>
+          <t>minter_a. j.</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>puk_a</t>
+          <t>puk_a. j.</t>
         </is>
       </c>
       <c r="C631" t="n">
@@ -30173,19 +30173,19 @@
         <v>1.08974358974359</v>
       </c>
       <c r="E804" t="n">
-        <v>1.025641025641026</v>
+        <v>1.012820512820513</v>
       </c>
       <c r="F804" t="n">
         <v>0.5128205128205128</v>
       </c>
       <c r="G804" t="n">
-        <v>0.5512820512820513</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="H804" t="n">
-        <v>0.1351396726396726</v>
+        <v>0.1354614229614229</v>
       </c>
       <c r="I804" t="n">
-        <v>4.384615384615385</v>
+        <v>4.371794871794871</v>
       </c>
       <c r="J804" t="n">
         <v>1.512820512820513</v>
@@ -30646,7 +30646,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>8.142857142857142</v>
+        <v>8.914285714285715</v>
       </c>
       <c r="D817" t="n">
         <v>1.8</v>
@@ -30667,7 +30667,7 @@
         <v>6.342857142857143</v>
       </c>
       <c r="J817" t="n">
-        <v>-0.05714285714285714</v>
+        <v>0</v>
       </c>
       <c r="K817" t="n">
         <v>-1.028571428571428</v>
@@ -31641,7 +31641,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>wendelken_j</t>
+          <t>wendelken_j. b.</t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>zeuch_t</t>
+          <t>zeuch_t. j.</t>
         </is>
       </c>
       <c r="C879" t="n">

--- a/data/relief_data/2021.xlsx
+++ b/data/relief_data/2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J884"/>
+  <dimension ref="A1:K884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -477,6 +477,11 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>d2S/G</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
         </is>
       </c>
     </row>
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>-0.4545454545454546</v>
       </c>
+      <c r="K2" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>-1.875</v>
       </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>-0.8181818181818182</v>
       </c>
+      <c r="K4" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>-0.7428571428571429</v>
       </c>
+      <c r="K5" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>-0.4666666666666663</v>
       </c>
+      <c r="K6" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>-0.4736842105263158</v>
       </c>
+      <c r="K7" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>-0.2575757575757576</v>
       </c>
+      <c r="K8" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>1</v>
       </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>-0.8214285714285714</v>
       </c>
+      <c r="K11" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>-0.7142857142857144</v>
       </c>
+      <c r="K12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>-1.2</v>
       </c>
+      <c r="K13" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>-0.2985074626865671</v>
       </c>
+      <c r="K14" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -955,6 +999,9 @@
       <c r="J15" t="n">
         <v>-0.282051282051282</v>
       </c>
+      <c r="K15" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -989,6 +1036,9 @@
       <c r="J16" t="n">
         <v>-0.2692307692307692</v>
       </c>
+      <c r="K16" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1023,6 +1073,9 @@
       <c r="J17" t="n">
         <v>-0.1224489795918369</v>
       </c>
+      <c r="K17" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1057,6 +1110,9 @@
       <c r="J18" t="n">
         <v>-0.7142857142857143</v>
       </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1091,6 +1147,9 @@
       <c r="J19" t="n">
         <v>-0.891891891891892</v>
       </c>
+      <c r="K19" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1125,6 +1184,9 @@
       <c r="J20" t="n">
         <v>-0.2777777777777778</v>
       </c>
+      <c r="K20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1159,6 +1221,9 @@
       <c r="J21" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1193,6 +1258,9 @@
       <c r="J22" t="n">
         <v>-0.4259259259259259</v>
       </c>
+      <c r="K22" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1227,6 +1295,9 @@
       <c r="J23" t="n">
         <v>-6</v>
       </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1261,6 +1332,9 @@
       <c r="J24" t="n">
         <v>-0.8888888888888888</v>
       </c>
+      <c r="K24" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1295,6 +1369,9 @@
       <c r="J25" t="n">
         <v>-0.3287671232876713</v>
       </c>
+      <c r="K25" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1329,6 +1406,9 @@
       <c r="J26" t="n">
         <v>-1.090909090909091</v>
       </c>
+      <c r="K26" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1363,6 +1443,9 @@
       <c r="J27" t="n">
         <v>-0.1333333333333334</v>
       </c>
+      <c r="K27" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1397,6 +1480,9 @@
       <c r="J28" t="n">
         <v>-0.5263157894736843</v>
       </c>
+      <c r="K28" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1431,6 +1517,9 @@
       <c r="J29" t="n">
         <v>-0.4666666666666668</v>
       </c>
+      <c r="K29" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1465,6 +1554,9 @@
       <c r="J30" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1499,6 +1591,9 @@
       <c r="J31" t="n">
         <v>-0.6000000000000001</v>
       </c>
+      <c r="K31" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1533,6 +1628,9 @@
       <c r="J32" t="n">
         <v>-1.428571428571428</v>
       </c>
+      <c r="K32" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1567,6 +1665,9 @@
       <c r="J33" t="n">
         <v>-2</v>
       </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1601,6 +1702,9 @@
       <c r="J34" t="n">
         <v>-1.138888888888889</v>
       </c>
+      <c r="K34" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,6 +1739,9 @@
       <c r="J35" t="n">
         <v>-0.736842105263158</v>
       </c>
+      <c r="K35" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1669,6 +1776,9 @@
       <c r="J36" t="n">
         <v>-0.3846153846153847</v>
       </c>
+      <c r="K36" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1703,6 +1813,9 @@
       <c r="J37" t="n">
         <v>-1</v>
       </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1737,6 +1850,9 @@
       <c r="J38" t="n">
         <v>2</v>
       </c>
+      <c r="K38" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1771,6 +1887,9 @@
       <c r="J39" t="n">
         <v>-0.3571428571428571</v>
       </c>
+      <c r="K39" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1805,6 +1924,9 @@
       <c r="J40" t="n">
         <v>-0.5405405405405405</v>
       </c>
+      <c r="K40" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1839,6 +1961,9 @@
       <c r="J41" t="n">
         <v>-2.137931034482758</v>
       </c>
+      <c r="K41" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1873,6 +1998,9 @@
       <c r="J42" t="n">
         <v>-2</v>
       </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1907,6 +2035,9 @@
       <c r="J43" t="n">
         <v>-0.2777777777777778</v>
       </c>
+      <c r="K43" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1941,6 +2072,9 @@
       <c r="J44" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1975,6 +2109,9 @@
       <c r="J45" t="n">
         <v>-2</v>
       </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2009,6 +2146,9 @@
       <c r="J46" t="n">
         <v>-1.166666666666667</v>
       </c>
+      <c r="K46" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2043,6 +2183,9 @@
       <c r="J47" t="n">
         <v>0</v>
       </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2077,6 +2220,9 @@
       <c r="J48" t="n">
         <v>-0.3571428571428571</v>
       </c>
+      <c r="K48" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2111,6 +2257,9 @@
       <c r="J49" t="n">
         <v>-0.6285714285714286</v>
       </c>
+      <c r="K49" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2145,6 +2294,9 @@
       <c r="J50" t="n">
         <v>-0.1333333333333333</v>
       </c>
+      <c r="K50" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2179,6 +2331,9 @@
       <c r="J51" t="n">
         <v>-0.2933333333333333</v>
       </c>
+      <c r="K51" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2213,6 +2368,9 @@
       <c r="J52" t="n">
         <v>-0.3548387096774194</v>
       </c>
+      <c r="K52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2405,9 @@
       <c r="J53" t="n">
         <v>-0.3205128205128206</v>
       </c>
+      <c r="K53" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2281,6 +2442,9 @@
       <c r="J54" t="n">
         <v>-1.454545454545455</v>
       </c>
+      <c r="K54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2315,6 +2479,9 @@
       <c r="J55" t="n">
         <v>-0.4857142857142857</v>
       </c>
+      <c r="K55" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2349,6 +2516,9 @@
       <c r="J56" t="n">
         <v>-0.2615384615384615</v>
       </c>
+      <c r="K56" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2383,6 +2553,9 @@
       <c r="J57" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K57" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2417,6 +2590,9 @@
       <c r="J58" t="n">
         <v>-1.666666666666667</v>
       </c>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2451,6 +2627,9 @@
       <c r="J59" t="n">
         <v>-0.6470588235294118</v>
       </c>
+      <c r="K59" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2485,6 +2664,9 @@
       <c r="J60" t="n">
         <v>-0.2658227848101266</v>
       </c>
+      <c r="K60" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2519,6 +2701,9 @@
       <c r="J61" t="n">
         <v>1.4</v>
       </c>
+      <c r="K61" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2553,6 +2738,9 @@
       <c r="J62" t="n">
         <v>0.1739130434782609</v>
       </c>
+      <c r="K62" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2587,6 +2775,9 @@
       <c r="J63" t="n">
         <v>-1.75</v>
       </c>
+      <c r="K63" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2621,6 +2812,9 @@
       <c r="J64" t="n">
         <v>1</v>
       </c>
+      <c r="K64" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2655,6 +2849,9 @@
       <c r="J65" t="n">
         <v>0.5</v>
       </c>
+      <c r="K65" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2689,6 +2886,9 @@
       <c r="J66" t="n">
         <v>-1.181818181818182</v>
       </c>
+      <c r="K66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,6 +2923,9 @@
       <c r="J67" t="n">
         <v>-0.1830985915492958</v>
       </c>
+      <c r="K67" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2757,6 +2960,9 @@
       <c r="J68" t="n">
         <v>-0.4705882352941178</v>
       </c>
+      <c r="K68" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2791,6 +2997,9 @@
       <c r="J69" t="n">
         <v>-3</v>
       </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2825,6 +3034,9 @@
       <c r="J70" t="n">
         <v>-0.3333333333333339</v>
       </c>
+      <c r="K70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2859,6 +3071,9 @@
       <c r="J71" t="n">
         <v>-3</v>
       </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2893,6 +3108,9 @@
       <c r="J72" t="n">
         <v>-0.4117647058823529</v>
       </c>
+      <c r="K72" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2927,6 +3145,9 @@
       <c r="J73" t="n">
         <v>-0.8421052631578947</v>
       </c>
+      <c r="K73" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2961,6 +3182,9 @@
       <c r="J74" t="n">
         <v>-0.3125</v>
       </c>
+      <c r="K74" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2995,6 +3219,9 @@
       <c r="J75" t="n">
         <v>0.2162162162162162</v>
       </c>
+      <c r="K75" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3029,6 +3256,9 @@
       <c r="J76" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K76" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3063,6 +3293,9 @@
       <c r="J77" t="n">
         <v>-3.25</v>
       </c>
+      <c r="K77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3097,6 +3330,9 @@
       <c r="J78" t="n">
         <v>-0.2857142857142856</v>
       </c>
+      <c r="K78" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3131,6 +3367,9 @@
       <c r="J79" t="n">
         <v>-0.1857142857142857</v>
       </c>
+      <c r="K79" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3165,6 +3404,9 @@
       <c r="J80" t="n">
         <v>-0.7058823529411766</v>
       </c>
+      <c r="K80" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3199,6 +3441,9 @@
       <c r="J81" t="n">
         <v>-0.2857142857142857</v>
       </c>
+      <c r="K81" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3233,6 +3478,9 @@
       <c r="J82" t="n">
         <v>-0.5454545454545455</v>
       </c>
+      <c r="K82" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3267,6 +3515,9 @@
       <c r="J83" t="n">
         <v>-0.3636363636363636</v>
       </c>
+      <c r="K83" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3301,6 +3552,9 @@
       <c r="J84" t="n">
         <v>0.5</v>
       </c>
+      <c r="K84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3335,6 +3589,9 @@
       <c r="J85" t="n">
         <v>-0.2666666666666666</v>
       </c>
+      <c r="K85" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3369,6 +3626,9 @@
       <c r="J86" t="n">
         <v>0.5</v>
       </c>
+      <c r="K86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3403,6 +3663,9 @@
       <c r="J87" t="n">
         <v>0</v>
       </c>
+      <c r="K87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3437,6 +3700,9 @@
       <c r="J88" t="n">
         <v>-0.3793103448275862</v>
       </c>
+      <c r="K88" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3471,6 +3737,9 @@
       <c r="J89" t="n">
         <v>0</v>
       </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3505,6 +3774,9 @@
       <c r="J90" t="n">
         <v>-0.489795918367347</v>
       </c>
+      <c r="K90" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3539,6 +3811,9 @@
       <c r="J91" t="n">
         <v>-0.426829268292683</v>
       </c>
+      <c r="K91" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3573,6 +3848,9 @@
       <c r="J92" t="n">
         <v>0.25</v>
       </c>
+      <c r="K92" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3607,6 +3885,9 @@
       <c r="J93" t="n">
         <v>-0.6</v>
       </c>
+      <c r="K93" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3641,6 +3922,9 @@
       <c r="J94" t="n">
         <v>-0.3387096774193549</v>
       </c>
+      <c r="K94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3675,6 +3959,9 @@
       <c r="J95" t="n">
         <v>-0.2999999999999999</v>
       </c>
+      <c r="K95" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3709,6 +3996,9 @@
       <c r="J96" t="n">
         <v>-1.636363636363636</v>
       </c>
+      <c r="K96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3743,6 +4033,9 @@
       <c r="J97" t="n">
         <v>-0.8888888888888888</v>
       </c>
+      <c r="K97" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3777,6 +4070,9 @@
       <c r="J98" t="n">
         <v>-0.666666666666667</v>
       </c>
+      <c r="K98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3811,6 +4107,9 @@
       <c r="J99" t="n">
         <v>-0.3170731707317074</v>
       </c>
+      <c r="K99" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3845,6 +4144,9 @@
       <c r="J100" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3879,6 +4181,9 @@
       <c r="J101" t="n">
         <v>-0.736842105263158</v>
       </c>
+      <c r="K101" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3913,6 +4218,9 @@
       <c r="J102" t="n">
         <v>-0.4090909090909092</v>
       </c>
+      <c r="K102" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3947,6 +4255,9 @@
       <c r="J103" t="n">
         <v>-0.2063492063492063</v>
       </c>
+      <c r="K103" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3981,6 +4292,9 @@
       <c r="J104" t="n">
         <v>-0.393939393939394</v>
       </c>
+      <c r="K104" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4015,6 +4329,9 @@
       <c r="J105" t="n">
         <v>-0.8620689655172413</v>
       </c>
+      <c r="K105" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4049,6 +4366,9 @@
       <c r="J106" t="n">
         <v>0.125</v>
       </c>
+      <c r="K106" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4083,6 +4403,9 @@
       <c r="J107" t="n">
         <v>-0.8181818181818181</v>
       </c>
+      <c r="K107" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4117,6 +4440,9 @@
       <c r="J108" t="n">
         <v>-0.6086956521739131</v>
       </c>
+      <c r="K108" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4151,6 +4477,9 @@
       <c r="J109" t="n">
         <v>0.7142857142857142</v>
       </c>
+      <c r="K109" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4185,6 +4514,9 @@
       <c r="J110" t="n">
         <v>-0.7586206896551726</v>
       </c>
+      <c r="K110" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4219,6 +4551,9 @@
       <c r="J111" t="n">
         <v>-0.9655172413793104</v>
       </c>
+      <c r="K111" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4253,6 +4588,9 @@
       <c r="J112" t="n">
         <v>-0.236111111111111</v>
       </c>
+      <c r="K112" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4287,6 +4625,9 @@
       <c r="J113" t="n">
         <v>-0.5555555555555556</v>
       </c>
+      <c r="K113" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4321,6 +4662,9 @@
       <c r="J114" t="n">
         <v>-1</v>
       </c>
+      <c r="K114" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4355,6 +4699,9 @@
       <c r="J115" t="n">
         <v>0.8823529411764707</v>
       </c>
+      <c r="K115" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4389,6 +4736,9 @@
       <c r="J116" t="n">
         <v>-2</v>
       </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4423,6 +4773,9 @@
       <c r="J117" t="n">
         <v>-0.4186046511627907</v>
       </c>
+      <c r="K117" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4457,6 +4810,9 @@
       <c r="J118" t="n">
         <v>-1.4</v>
       </c>
+      <c r="K118" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4491,6 +4847,9 @@
       <c r="J119" t="n">
         <v>-0.2727272727272728</v>
       </c>
+      <c r="K119" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4525,6 +4884,9 @@
       <c r="J120" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K120" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4559,6 +4921,9 @@
       <c r="J121" t="n">
         <v>0</v>
       </c>
+      <c r="K121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4593,6 +4958,9 @@
       <c r="J122" t="n">
         <v>-1.428571428571429</v>
       </c>
+      <c r="K122" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4627,6 +4995,9 @@
       <c r="J123" t="n">
         <v>-0.4102564102564102</v>
       </c>
+      <c r="K123" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4661,6 +5032,9 @@
       <c r="J124" t="n">
         <v>-1.363636363636364</v>
       </c>
+      <c r="K124" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4695,6 +5069,9 @@
       <c r="J125" t="n">
         <v>0.2727272727272727</v>
       </c>
+      <c r="K125" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4729,6 +5106,9 @@
       <c r="J126" t="n">
         <v>-0.7999999999999998</v>
       </c>
+      <c r="K126" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4763,6 +5143,9 @@
       <c r="J127" t="n">
         <v>0.9473684210526316</v>
       </c>
+      <c r="K127" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4797,6 +5180,9 @@
       <c r="J128" t="n">
         <v>-0.3999999999999999</v>
       </c>
+      <c r="K128" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4831,6 +5217,9 @@
       <c r="J129" t="n">
         <v>-2</v>
       </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4865,6 +5254,9 @@
       <c r="J130" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K130" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4899,6 +5291,9 @@
       <c r="J131" t="n">
         <v>-0.7</v>
       </c>
+      <c r="K131" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4933,6 +5328,9 @@
       <c r="J132" t="n">
         <v>-3</v>
       </c>
+      <c r="K132" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4967,6 +5365,9 @@
       <c r="J133" t="n">
         <v>0.1875</v>
       </c>
+      <c r="K133" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5001,6 +5402,9 @@
       <c r="J134" t="n">
         <v>-0.208955223880597</v>
       </c>
+      <c r="K134" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5035,6 +5439,9 @@
       <c r="J135" t="n">
         <v>-0.4166666666666666</v>
       </c>
+      <c r="K135" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5069,6 +5476,9 @@
       <c r="J136" t="n">
         <v>-0.3428571428571429</v>
       </c>
+      <c r="K136" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5103,6 +5513,9 @@
       <c r="J137" t="n">
         <v>0</v>
       </c>
+      <c r="K137" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5137,6 +5550,9 @@
       <c r="J138" t="n">
         <v>-0.2631578947368421</v>
       </c>
+      <c r="K138" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5171,6 +5587,9 @@
       <c r="J139" t="n">
         <v>-0.1558441558441558</v>
       </c>
+      <c r="K139" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5205,6 +5624,9 @@
       <c r="J140" t="n">
         <v>1.27027027027027</v>
       </c>
+      <c r="K140" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5239,6 +5661,9 @@
       <c r="J141" t="n">
         <v>-0.459016393442623</v>
       </c>
+      <c r="K141" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5273,6 +5698,9 @@
       <c r="J142" t="n">
         <v>-0.5098039215686274</v>
       </c>
+      <c r="K142" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5307,6 +5735,9 @@
       <c r="J143" t="n">
         <v>-0.2375</v>
       </c>
+      <c r="K143" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5341,6 +5772,9 @@
       <c r="J144" t="n">
         <v>-0.2388059701492538</v>
       </c>
+      <c r="K144" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5375,6 +5809,9 @@
       <c r="J145" t="n">
         <v>-0.3076923076923077</v>
       </c>
+      <c r="K145" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5409,6 +5846,9 @@
       <c r="J146" t="n">
         <v>-0.4358974358974359</v>
       </c>
+      <c r="K146" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5443,6 +5883,9 @@
       <c r="J147" t="n">
         <v>-0.4285714285714286</v>
       </c>
+      <c r="K147" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5477,6 +5920,9 @@
       <c r="J148" t="n">
         <v>-0.1375</v>
       </c>
+      <c r="K148" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5511,6 +5957,9 @@
       <c r="J149" t="n">
         <v>-0.4512195121951219</v>
       </c>
+      <c r="K149" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5545,6 +5994,9 @@
       <c r="J150" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K150" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5579,6 +6031,9 @@
       <c r="J151" t="n">
         <v>1.192307692307692</v>
       </c>
+      <c r="K151" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5613,6 +6068,9 @@
       <c r="J152" t="n">
         <v>-0.148936170212766</v>
       </c>
+      <c r="K152" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5647,6 +6105,9 @@
       <c r="J153" t="n">
         <v>-0.1604938271604939</v>
       </c>
+      <c r="K153" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5681,6 +6142,9 @@
       <c r="J154" t="n">
         <v>-0.3541666666666666</v>
       </c>
+      <c r="K154" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5715,6 +6179,9 @@
       <c r="J155" t="n">
         <v>-0.3076923076923077</v>
       </c>
+      <c r="K155" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5749,6 +6216,9 @@
       <c r="J156" t="n">
         <v>-0.4193548387096775</v>
       </c>
+      <c r="K156" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5783,6 +6253,9 @@
       <c r="J157" t="n">
         <v>-0.6206896551724138</v>
       </c>
+      <c r="K157" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5817,6 +6290,9 @@
       <c r="J158" t="n">
         <v>0.8095238095238096</v>
       </c>
+      <c r="K158" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5851,6 +6327,9 @@
       <c r="J159" t="n">
         <v>-1.076923076923077</v>
       </c>
+      <c r="K159" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5885,6 +6364,9 @@
       <c r="J160" t="n">
         <v>-0.3846153846153846</v>
       </c>
+      <c r="K160" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5919,6 +6401,9 @@
       <c r="J161" t="n">
         <v>0.4722222222222223</v>
       </c>
+      <c r="K161" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5953,6 +6438,9 @@
       <c r="J162" t="n">
         <v>0</v>
       </c>
+      <c r="K162" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5987,6 +6475,9 @@
       <c r="J163" t="n">
         <v>-0.5131578947368421</v>
       </c>
+      <c r="K163" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6021,6 +6512,9 @@
       <c r="J164" t="n">
         <v>0</v>
       </c>
+      <c r="K164" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6055,6 +6549,9 @@
       <c r="J165" t="n">
         <v>0</v>
       </c>
+      <c r="K165" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6089,6 +6586,9 @@
       <c r="J166" t="n">
         <v>-0.3921568627450981</v>
       </c>
+      <c r="K166" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6123,6 +6623,9 @@
       <c r="J167" t="n">
         <v>-0.6</v>
       </c>
+      <c r="K167" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6157,6 +6660,9 @@
       <c r="J168" t="n">
         <v>0.103448275862069</v>
       </c>
+      <c r="K168" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6191,6 +6697,9 @@
       <c r="J169" t="n">
         <v>-0.3214285714285714</v>
       </c>
+      <c r="K169" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6225,6 +6734,9 @@
       <c r="J170" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K170" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6259,6 +6771,9 @@
       <c r="J171" t="n">
         <v>-0.2777777777777778</v>
       </c>
+      <c r="K171" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6293,6 +6808,9 @@
       <c r="J172" t="n">
         <v>-4</v>
       </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6327,6 +6845,9 @@
       <c r="J173" t="n">
         <v>-0.5135135135135136</v>
       </c>
+      <c r="K173" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6361,6 +6882,9 @@
       <c r="J174" t="n">
         <v>-0.1764705882352942</v>
       </c>
+      <c r="K174" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6395,6 +6919,9 @@
       <c r="J175" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K175" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6429,6 +6956,9 @@
       <c r="J176" t="n">
         <v>-3</v>
       </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6463,6 +6993,9 @@
       <c r="J177" t="n">
         <v>-0.3181818181818183</v>
       </c>
+      <c r="K177" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6497,6 +7030,9 @@
       <c r="J178" t="n">
         <v>-1.2</v>
       </c>
+      <c r="K178" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6531,6 +7067,9 @@
       <c r="J179" t="n">
         <v>-0.4516129032258064</v>
       </c>
+      <c r="K179" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6565,6 +7104,9 @@
       <c r="J180" t="n">
         <v>0.07999999999999999</v>
       </c>
+      <c r="K180" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6599,6 +7141,9 @@
       <c r="J181" t="n">
         <v>0</v>
       </c>
+      <c r="K181" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6633,6 +7178,9 @@
       <c r="J182" t="n">
         <v>-0.4999999999999999</v>
       </c>
+      <c r="K182" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6667,6 +7215,9 @@
       <c r="J183" t="n">
         <v>-0.1212121212121212</v>
       </c>
+      <c r="K183" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6701,6 +7252,9 @@
       <c r="J184" t="n">
         <v>-0.7142857142857142</v>
       </c>
+      <c r="K184" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6735,6 +7289,9 @@
       <c r="J185" t="n">
         <v>-0.2702702702702703</v>
       </c>
+      <c r="K185" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6769,6 +7326,9 @@
       <c r="J186" t="n">
         <v>-0.4000000000000001</v>
       </c>
+      <c r="K186" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6803,6 +7363,9 @@
       <c r="J187" t="n">
         <v>-0.4680851063829787</v>
       </c>
+      <c r="K187" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6837,6 +7400,9 @@
       <c r="J188" t="n">
         <v>-0.9473684210526315</v>
       </c>
+      <c r="K188" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6871,6 +7437,9 @@
       <c r="J189" t="n">
         <v>-0.7407407407407409</v>
       </c>
+      <c r="K189" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6905,6 +7474,9 @@
       <c r="J190" t="n">
         <v>-0.8571428571428572</v>
       </c>
+      <c r="K190" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6939,6 +7511,9 @@
       <c r="J191" t="n">
         <v>-1.928571428571429</v>
       </c>
+      <c r="K191" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6973,6 +7548,9 @@
       <c r="J192" t="n">
         <v>-0.8499999999999999</v>
       </c>
+      <c r="K192" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7007,6 +7585,9 @@
       <c r="J193" t="n">
         <v>1.105263157894737</v>
       </c>
+      <c r="K193" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7041,6 +7622,9 @@
       <c r="J194" t="n">
         <v>0</v>
       </c>
+      <c r="K194" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7075,6 +7659,9 @@
       <c r="J195" t="n">
         <v>0.9142857142857143</v>
       </c>
+      <c r="K195" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7109,6 +7696,9 @@
       <c r="J196" t="n">
         <v>-1.285714285714286</v>
       </c>
+      <c r="K196" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7143,6 +7733,9 @@
       <c r="J197" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K197" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7177,6 +7770,9 @@
       <c r="J198" t="n">
         <v>-0.5333333333333333</v>
       </c>
+      <c r="K198" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7211,6 +7807,9 @@
       <c r="J199" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K199" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7245,6 +7844,9 @@
       <c r="J200" t="n">
         <v>-0.3424657534246575</v>
       </c>
+      <c r="K200" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7279,6 +7881,9 @@
       <c r="J201" t="n">
         <v>-4</v>
       </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7313,6 +7918,9 @@
       <c r="J202" t="n">
         <v>-0.3999999999999999</v>
       </c>
+      <c r="K202" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7347,6 +7955,9 @@
       <c r="J203" t="n">
         <v>-0.8421052631578947</v>
       </c>
+      <c r="K203" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7381,6 +7992,9 @@
       <c r="J204" t="n">
         <v>0</v>
       </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7415,6 +8029,9 @@
       <c r="J205" t="n">
         <v>-0.3571428571428572</v>
       </c>
+      <c r="K205" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7449,6 +8066,9 @@
       <c r="J206" t="n">
         <v>0</v>
       </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7483,6 +8103,9 @@
       <c r="J207" t="n">
         <v>-0.6875</v>
       </c>
+      <c r="K207" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7517,6 +8140,9 @@
       <c r="J208" t="n">
         <v>-0.3243243243243246</v>
       </c>
+      <c r="K208" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7551,6 +8177,9 @@
       <c r="J209" t="n">
         <v>-0.4788732394366196</v>
       </c>
+      <c r="K209" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7585,6 +8214,9 @@
       <c r="J210" t="n">
         <v>0.5555555555555556</v>
       </c>
+      <c r="K210" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7619,6 +8251,9 @@
       <c r="J211" t="n">
         <v>-1.153846153846154</v>
       </c>
+      <c r="K211" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7653,6 +8288,9 @@
       <c r="J212" t="n">
         <v>-0.6</v>
       </c>
+      <c r="K212" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7687,6 +8325,9 @@
       <c r="J213" t="n">
         <v>-0.5333333333333333</v>
       </c>
+      <c r="K213" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7721,6 +8362,9 @@
       <c r="J214" t="n">
         <v>-1.666666666666667</v>
       </c>
+      <c r="K214" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7755,6 +8399,9 @@
       <c r="J215" t="n">
         <v>-0.246376811594203</v>
       </c>
+      <c r="K215" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7789,6 +8436,9 @@
       <c r="J216" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="K216" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7823,6 +8473,9 @@
       <c r="J217" t="n">
         <v>-0.3666666666666666</v>
       </c>
+      <c r="K217" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7857,6 +8510,9 @@
       <c r="J218" t="n">
         <v>-0.5454545454545454</v>
       </c>
+      <c r="K218" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7891,6 +8547,9 @@
       <c r="J219" t="n">
         <v>0</v>
       </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7925,6 +8584,9 @@
       <c r="J220" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K220" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7959,6 +8621,9 @@
       <c r="J221" t="n">
         <v>-0.7142857142857144</v>
       </c>
+      <c r="K221" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7993,6 +8658,9 @@
       <c r="J222" t="n">
         <v>0</v>
       </c>
+      <c r="K222" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8027,6 +8695,9 @@
       <c r="J223" t="n">
         <v>-3.428571428571429</v>
       </c>
+      <c r="K223" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8061,6 +8732,9 @@
       <c r="J224" t="n">
         <v>-0.7647058823529416</v>
       </c>
+      <c r="K224" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8095,6 +8769,9 @@
       <c r="J225" t="n">
         <v>-0.4166666666666667</v>
       </c>
+      <c r="K225" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8129,6 +8806,9 @@
       <c r="J226" t="n">
         <v>0.9285714285714286</v>
       </c>
+      <c r="K226" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8163,6 +8843,9 @@
       <c r="J227" t="n">
         <v>-0.6153846153846154</v>
       </c>
+      <c r="K227" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8197,6 +8880,9 @@
       <c r="J228" t="n">
         <v>0.7560975609756098</v>
       </c>
+      <c r="K228" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8231,6 +8917,9 @@
       <c r="J229" t="n">
         <v>-1.8</v>
       </c>
+      <c r="K229" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8265,6 +8954,9 @@
       <c r="J230" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K230" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8299,6 +8991,9 @@
       <c r="J231" t="n">
         <v>-0.275</v>
       </c>
+      <c r="K231" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8333,6 +9028,9 @@
       <c r="J232" t="n">
         <v>-0.5277777777777778</v>
       </c>
+      <c r="K232" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8367,6 +9065,9 @@
       <c r="J233" t="n">
         <v>-0.52</v>
       </c>
+      <c r="K233" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8399,6 +9100,9 @@
       <c r="J234" t="n">
         <v>0</v>
       </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8433,6 +9137,9 @@
       <c r="J235" t="n">
         <v>-0.2777777777777778</v>
       </c>
+      <c r="K235" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8467,6 +9174,9 @@
       <c r="J236" t="n">
         <v>-0.5217391304347827</v>
       </c>
+      <c r="K236" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8501,6 +9211,9 @@
       <c r="J237" t="n">
         <v>-0.4722222222222222</v>
       </c>
+      <c r="K237" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8535,6 +9248,9 @@
       <c r="J238" t="n">
         <v>-0.4838709677419355</v>
       </c>
+      <c r="K238" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8569,6 +9285,9 @@
       <c r="J239" t="n">
         <v>-0.4651162790697676</v>
       </c>
+      <c r="K239" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8603,6 +9322,9 @@
       <c r="J240" t="n">
         <v>-0.2592592592592593</v>
       </c>
+      <c r="K240" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8637,6 +9359,9 @@
       <c r="J241" t="n">
         <v>-0.4411764705882353</v>
       </c>
+      <c r="K241" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8671,6 +9396,9 @@
       <c r="J242" t="n">
         <v>-0.6785714285714284</v>
       </c>
+      <c r="K242" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8705,6 +9433,9 @@
       <c r="J243" t="n">
         <v>-1</v>
       </c>
+      <c r="K243" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8739,6 +9470,9 @@
       <c r="J244" t="n">
         <v>-3</v>
       </c>
+      <c r="K244" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8773,6 +9507,9 @@
       <c r="J245" t="n">
         <v>-1.285714285714286</v>
       </c>
+      <c r="K245" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8807,6 +9544,9 @@
       <c r="J246" t="n">
         <v>-0.8000000000000003</v>
       </c>
+      <c r="K246" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8841,6 +9581,9 @@
       <c r="J247" t="n">
         <v>-0.164179104477612</v>
       </c>
+      <c r="K247" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8875,6 +9618,9 @@
       <c r="J248" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K248" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8909,6 +9655,9 @@
       <c r="J249" t="n">
         <v>-0.6081081081081081</v>
       </c>
+      <c r="K249" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8943,6 +9692,9 @@
       <c r="J250" t="n">
         <v>-1</v>
       </c>
+      <c r="K250" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8977,6 +9729,9 @@
       <c r="J251" t="n">
         <v>0.4761904761904762</v>
       </c>
+      <c r="K251" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9011,6 +9766,9 @@
       <c r="J252" t="n">
         <v>-0.0625</v>
       </c>
+      <c r="K252" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9045,6 +9803,9 @@
       <c r="J253" t="n">
         <v>-0.6363636363636362</v>
       </c>
+      <c r="K253" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9079,6 +9840,9 @@
       <c r="J254" t="n">
         <v>0.2777777777777777</v>
       </c>
+      <c r="K254" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9113,6 +9877,9 @@
       <c r="J255" t="n">
         <v>-0.2499999999999999</v>
       </c>
+      <c r="K255" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9147,6 +9914,9 @@
       <c r="J256" t="n">
         <v>-0.2307692307692308</v>
       </c>
+      <c r="K256" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9181,6 +9951,9 @@
       <c r="J257" t="n">
         <v>-1.612903225806452</v>
       </c>
+      <c r="K257" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9215,6 +9988,9 @@
       <c r="J258" t="n">
         <v>-0.6190476190476191</v>
       </c>
+      <c r="K258" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9249,6 +10025,9 @@
       <c r="J259" t="n">
         <v>-1.625</v>
       </c>
+      <c r="K259" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9283,6 +10062,9 @@
       <c r="J260" t="n">
         <v>-0.3076923076923077</v>
       </c>
+      <c r="K260" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9317,6 +10099,9 @@
       <c r="J261" t="n">
         <v>1.361111111111111</v>
       </c>
+      <c r="K261" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9351,6 +10136,9 @@
       <c r="J262" t="n">
         <v>-1.166666666666667</v>
       </c>
+      <c r="K262" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9385,6 +10173,9 @@
       <c r="J263" t="n">
         <v>-0.1525423728813559</v>
       </c>
+      <c r="K263" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9419,6 +10210,9 @@
       <c r="J264" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K264" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9453,6 +10247,9 @@
       <c r="J265" t="n">
         <v>0</v>
       </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9487,6 +10284,9 @@
       <c r="J266" t="n">
         <v>-0.3846153846153846</v>
       </c>
+      <c r="K266" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9521,6 +10321,9 @@
       <c r="J267" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K267" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9555,6 +10358,9 @@
       <c r="J268" t="n">
         <v>-0.3770491803278689</v>
       </c>
+      <c r="K268" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9589,6 +10395,9 @@
       <c r="J269" t="n">
         <v>-0.2439024390243902</v>
       </c>
+      <c r="K269" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9623,6 +10432,9 @@
       <c r="J270" t="n">
         <v>-0.2222222222222222</v>
       </c>
+      <c r="K270" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9657,6 +10469,9 @@
       <c r="J271" t="n">
         <v>-0.5348837209302326</v>
       </c>
+      <c r="K271" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9691,6 +10506,9 @@
       <c r="J272" t="n">
         <v>-0.6304347826086956</v>
       </c>
+      <c r="K272" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9725,6 +10543,9 @@
       <c r="J273" t="n">
         <v>-1.285714285714286</v>
       </c>
+      <c r="K273" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9759,6 +10580,9 @@
       <c r="J274" t="n">
         <v>-1.052631578947368</v>
       </c>
+      <c r="K274" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9793,6 +10617,9 @@
       <c r="J275" t="n">
         <v>-0.3134328358208955</v>
       </c>
+      <c r="K275" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9827,6 +10654,9 @@
       <c r="J276" t="n">
         <v>0.5675675675675675</v>
       </c>
+      <c r="K276" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9861,6 +10691,9 @@
       <c r="J277" t="n">
         <v>-4</v>
       </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9895,6 +10728,9 @@
       <c r="J278" t="n">
         <v>0</v>
       </c>
+      <c r="K278" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9929,6 +10765,9 @@
       <c r="J279" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K279" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9963,6 +10802,9 @@
       <c r="J280" t="n">
         <v>-0.3731343283582089</v>
       </c>
+      <c r="K280" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9997,6 +10839,9 @@
       <c r="J281" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K281" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10031,6 +10876,9 @@
       <c r="J282" t="n">
         <v>-0.04761904761904767</v>
       </c>
+      <c r="K282" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10065,6 +10913,9 @@
       <c r="J283" t="n">
         <v>-0.1818181818181818</v>
       </c>
+      <c r="K283" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10099,6 +10950,9 @@
       <c r="J284" t="n">
         <v>0.5263157894736842</v>
       </c>
+      <c r="K284" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10133,6 +10987,9 @@
       <c r="J285" t="n">
         <v>0.2692307692307693</v>
       </c>
+      <c r="K285" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10167,6 +11024,9 @@
       <c r="J286" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10201,6 +11061,9 @@
       <c r="J287" t="n">
         <v>0.1470588235294117</v>
       </c>
+      <c r="K287" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10235,6 +11098,9 @@
       <c r="J288" t="n">
         <v>0.625</v>
       </c>
+      <c r="K288" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10269,6 +11135,9 @@
       <c r="J289" t="n">
         <v>0.08000000000000002</v>
       </c>
+      <c r="K289" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10303,6 +11172,9 @@
       <c r="J290" t="n">
         <v>-0.1333333333333333</v>
       </c>
+      <c r="K290" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10337,6 +11209,9 @@
       <c r="J291" t="n">
         <v>-0.4035087719298246</v>
       </c>
+      <c r="K291" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10371,6 +11246,9 @@
       <c r="J292" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K292" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10405,6 +11283,9 @@
       <c r="J293" t="n">
         <v>0.9210526315789475</v>
       </c>
+      <c r="K293" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10439,6 +11320,9 @@
       <c r="J294" t="n">
         <v>-0.4262295081967213</v>
       </c>
+      <c r="K294" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10473,6 +11357,9 @@
       <c r="J295" t="n">
         <v>0.2777777777777777</v>
       </c>
+      <c r="K295" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10507,6 +11394,9 @@
       <c r="J296" t="n">
         <v>-1</v>
       </c>
+      <c r="K296" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10541,6 +11431,9 @@
       <c r="J297" t="n">
         <v>0.4137931034482758</v>
       </c>
+      <c r="K297" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10575,6 +11468,9 @@
       <c r="J298" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K298" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10609,6 +11505,9 @@
       <c r="J299" t="n">
         <v>0.3043478260869565</v>
       </c>
+      <c r="K299" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10643,6 +11542,9 @@
       <c r="J300" t="n">
         <v>-0.8275862068965517</v>
       </c>
+      <c r="K300" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10677,6 +11579,9 @@
       <c r="J301" t="n">
         <v>-0.5862068965517242</v>
       </c>
+      <c r="K301" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10711,6 +11616,9 @@
       <c r="J302" t="n">
         <v>0</v>
       </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10745,6 +11653,9 @@
       <c r="J303" t="n">
         <v>-0.462962962962963</v>
       </c>
+      <c r="K303" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10779,6 +11690,9 @@
       <c r="J304" t="n">
         <v>-0.2307692307692308</v>
       </c>
+      <c r="K304" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10813,6 +11727,9 @@
       <c r="J305" t="n">
         <v>-0.2222222222222221</v>
       </c>
+      <c r="K305" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10847,6 +11764,9 @@
       <c r="J306" t="n">
         <v>-0.1428571428571429</v>
       </c>
+      <c r="K306" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10881,6 +11801,9 @@
       <c r="J307" t="n">
         <v>-0.2816901408450705</v>
       </c>
+      <c r="K307" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10915,6 +11838,9 @@
       <c r="J308" t="n">
         <v>-0.65625</v>
       </c>
+      <c r="K308" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10949,6 +11875,9 @@
       <c r="J309" t="n">
         <v>-0.7777777777777777</v>
       </c>
+      <c r="K309" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10983,6 +11912,9 @@
       <c r="J310" t="n">
         <v>-0.3703703703703703</v>
       </c>
+      <c r="K310" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11017,6 +11949,9 @@
       <c r="J311" t="n">
         <v>-0.2328767123287672</v>
       </c>
+      <c r="K311" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11051,6 +11986,9 @@
       <c r="J312" t="n">
         <v>-0.1333333333333333</v>
       </c>
+      <c r="K312" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11085,6 +12023,9 @@
       <c r="J313" t="n">
         <v>-0.3928571428571429</v>
       </c>
+      <c r="K313" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11119,6 +12060,9 @@
       <c r="J314" t="n">
         <v>0.4594594594594595</v>
       </c>
+      <c r="K314" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11153,6 +12097,9 @@
       <c r="J315" t="n">
         <v>-0.6521739130434784</v>
       </c>
+      <c r="K315" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11187,6 +12134,9 @@
       <c r="J316" t="n">
         <v>-0.5999999999999999</v>
       </c>
+      <c r="K316" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11221,6 +12171,9 @@
       <c r="J317" t="n">
         <v>-0.8571428571428572</v>
       </c>
+      <c r="K317" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11255,6 +12208,9 @@
       <c r="J318" t="n">
         <v>-0.3166666666666667</v>
       </c>
+      <c r="K318" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11289,6 +12245,9 @@
       <c r="J319" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K319" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11323,6 +12282,9 @@
       <c r="J320" t="n">
         <v>-0.2608695652173911</v>
       </c>
+      <c r="K320" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11357,6 +12319,9 @@
       <c r="J321" t="n">
         <v>-2</v>
       </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11391,6 +12356,9 @@
       <c r="J322" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K322" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11425,6 +12393,9 @@
       <c r="J323" t="n">
         <v>-0.4999999999999999</v>
       </c>
+      <c r="K323" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11459,6 +12430,9 @@
       <c r="J324" t="n">
         <v>0.4444444444444444</v>
       </c>
+      <c r="K324" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11493,6 +12467,9 @@
       <c r="J325" t="n">
         <v>-2.5</v>
       </c>
+      <c r="K325" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11527,6 +12504,9 @@
       <c r="J326" t="n">
         <v>-0.1714285714285715</v>
       </c>
+      <c r="K326" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11561,6 +12541,9 @@
       <c r="J327" t="n">
         <v>-0.5833333333333333</v>
       </c>
+      <c r="K327" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11595,6 +12578,9 @@
       <c r="J328" t="n">
         <v>-0.8461538461538461</v>
       </c>
+      <c r="K328" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11629,6 +12615,9 @@
       <c r="J329" t="n">
         <v>-0.653846153846154</v>
       </c>
+      <c r="K329" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11663,6 +12652,9 @@
       <c r="J330" t="n">
         <v>-0.4533333333333334</v>
       </c>
+      <c r="K330" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11697,6 +12689,9 @@
       <c r="J331" t="n">
         <v>-0.9500000000000002</v>
       </c>
+      <c r="K331" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11731,6 +12726,9 @@
       <c r="J332" t="n">
         <v>-0.5454545454545454</v>
       </c>
+      <c r="K332" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11765,6 +12763,9 @@
       <c r="J333" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K333" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11799,6 +12800,9 @@
       <c r="J334" t="n">
         <v>-0.1499999999999999</v>
       </c>
+      <c r="K334" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11833,6 +12837,9 @@
       <c r="J335" t="n">
         <v>-0.4000000000000001</v>
       </c>
+      <c r="K335" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11867,6 +12874,9 @@
       <c r="J336" t="n">
         <v>-0.7142857142857144</v>
       </c>
+      <c r="K336" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11901,6 +12911,9 @@
       <c r="J337" t="n">
         <v>0.5</v>
       </c>
+      <c r="K337" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11935,6 +12948,9 @@
       <c r="J338" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="K338" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11969,6 +12985,9 @@
       <c r="J339" t="n">
         <v>-1.09375</v>
       </c>
+      <c r="K339" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12003,6 +13022,9 @@
       <c r="J340" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K340" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12037,6 +13059,9 @@
       <c r="J341" t="n">
         <v>-0.08823529411764697</v>
       </c>
+      <c r="K341" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12071,6 +13096,9 @@
       <c r="J342" t="n">
         <v>-0.1428571428571428</v>
       </c>
+      <c r="K342" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12105,6 +13133,9 @@
       <c r="J343" t="n">
         <v>-0.02083333333333337</v>
       </c>
+      <c r="K343" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12139,6 +13170,9 @@
       <c r="J344" t="n">
         <v>0.5000000000000001</v>
       </c>
+      <c r="K344" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12173,6 +13207,9 @@
       <c r="J345" t="n">
         <v>-0.1724137931034483</v>
       </c>
+      <c r="K345" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12207,6 +13244,9 @@
       <c r="J346" t="n">
         <v>-0.3529411764705882</v>
       </c>
+      <c r="K346" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -12241,6 +13281,9 @@
       <c r="J347" t="n">
         <v>0.1944444444444444</v>
       </c>
+      <c r="K347" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -12275,6 +13318,9 @@
       <c r="J348" t="n">
         <v>-0.2533333333333334</v>
       </c>
+      <c r="K348" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12309,6 +13355,9 @@
       <c r="J349" t="n">
         <v>-0.6410256410256412</v>
       </c>
+      <c r="K349" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -12343,6 +13392,9 @@
       <c r="J350" t="n">
         <v>-1</v>
       </c>
+      <c r="K350" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -12377,6 +13429,9 @@
       <c r="J351" t="n">
         <v>-0.2400000000000001</v>
       </c>
+      <c r="K351" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -12411,6 +13466,9 @@
       <c r="J352" t="n">
         <v>0.1612903225806452</v>
       </c>
+      <c r="K352" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -12445,6 +13503,9 @@
       <c r="J353" t="n">
         <v>-0.2678571428571428</v>
       </c>
+      <c r="K353" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -12479,6 +13540,9 @@
       <c r="J354" t="n">
         <v>-0.7142857142857143</v>
       </c>
+      <c r="K354" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -12513,6 +13577,9 @@
       <c r="J355" t="n">
         <v>-1.9</v>
       </c>
+      <c r="K355" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -12547,6 +13614,9 @@
       <c r="J356" t="n">
         <v>-0.2602739726027397</v>
       </c>
+      <c r="K356" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -12581,6 +13651,9 @@
       <c r="J357" t="n">
         <v>-0.2666666666666666</v>
       </c>
+      <c r="K357" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -12615,6 +13688,9 @@
       <c r="J358" t="n">
         <v>-0.9999999999999998</v>
       </c>
+      <c r="K358" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -12649,6 +13725,9 @@
       <c r="J359" t="n">
         <v>0.4166666666666667</v>
       </c>
+      <c r="K359" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -12683,6 +13762,9 @@
       <c r="J360" t="n">
         <v>-0.3294117647058823</v>
       </c>
+      <c r="K360" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -12717,6 +13799,9 @@
       <c r="J361" t="n">
         <v>-0.5945945945945946</v>
       </c>
+      <c r="K361" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -12751,6 +13836,9 @@
       <c r="J362" t="n">
         <v>-1</v>
       </c>
+      <c r="K362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -12785,6 +13873,9 @@
       <c r="J363" t="n">
         <v>-0.3404255319148936</v>
       </c>
+      <c r="K363" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -12819,6 +13910,9 @@
       <c r="J364" t="n">
         <v>-0.4307692307692308</v>
       </c>
+      <c r="K364" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -12853,6 +13947,9 @@
       <c r="J365" t="n">
         <v>-0.07142857142857142</v>
       </c>
+      <c r="K365" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -12887,6 +13984,9 @@
       <c r="J366" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K366" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -12921,6 +14021,9 @@
       <c r="J367" t="n">
         <v>0</v>
       </c>
+      <c r="K367" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -12955,6 +14058,9 @@
       <c r="J368" t="n">
         <v>-1</v>
       </c>
+      <c r="K368" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -12989,6 +14095,9 @@
       <c r="J369" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="K369" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -13023,6 +14132,9 @@
       <c r="J370" t="n">
         <v>0.3055555555555556</v>
       </c>
+      <c r="K370" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -13057,6 +14169,9 @@
       <c r="J371" t="n">
         <v>-0.3387096774193548</v>
       </c>
+      <c r="K371" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -13091,6 +14206,9 @@
       <c r="J372" t="n">
         <v>-1.19047619047619</v>
       </c>
+      <c r="K372" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -13125,6 +14243,9 @@
       <c r="J373" t="n">
         <v>-0.7058823529411764</v>
       </c>
+      <c r="K373" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -13159,6 +14280,9 @@
       <c r="J374" t="n">
         <v>3.5</v>
       </c>
+      <c r="K374" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -13193,6 +14317,9 @@
       <c r="J375" t="n">
         <v>-0.4067796610169491</v>
       </c>
+      <c r="K375" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -13227,6 +14354,9 @@
       <c r="J376" t="n">
         <v>0</v>
       </c>
+      <c r="K376" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -13261,6 +14391,9 @@
       <c r="J377" t="n">
         <v>-0.4166666666666667</v>
       </c>
+      <c r="K377" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -13295,6 +14428,9 @@
       <c r="J378" t="n">
         <v>-0.3333333333333335</v>
       </c>
+      <c r="K378" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -13329,6 +14465,9 @@
       <c r="J379" t="n">
         <v>0.6756756756756757</v>
       </c>
+      <c r="K379" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -13363,6 +14502,9 @@
       <c r="J380" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K380" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -13397,6 +14539,9 @@
       <c r="J381" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="K381" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -13431,6 +14576,9 @@
       <c r="J382" t="n">
         <v>-0.3461538461538461</v>
       </c>
+      <c r="K382" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -13465,6 +14613,9 @@
       <c r="J383" t="n">
         <v>-0.2808988764044944</v>
       </c>
+      <c r="K383" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -13499,6 +14650,9 @@
       <c r="J384" t="n">
         <v>-0.6000000000000001</v>
       </c>
+      <c r="K384" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -13533,6 +14687,9 @@
       <c r="J385" t="n">
         <v>-2.25</v>
       </c>
+      <c r="K385" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -13567,6 +14724,9 @@
       <c r="J386" t="n">
         <v>-0.1764705882352942</v>
       </c>
+      <c r="K386" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -13601,6 +14761,9 @@
       <c r="J387" t="n">
         <v>-0.02272727272727282</v>
       </c>
+      <c r="K387" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -13635,6 +14798,9 @@
       <c r="J388" t="n">
         <v>-1.2</v>
       </c>
+      <c r="K388" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -13669,6 +14835,9 @@
       <c r="J389" t="n">
         <v>0.9090909090909092</v>
       </c>
+      <c r="K389" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -13703,6 +14872,9 @@
       <c r="J390" t="n">
         <v>-1.375</v>
       </c>
+      <c r="K390" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -13737,6 +14909,9 @@
       <c r="J391" t="n">
         <v>-0.5172413793103448</v>
       </c>
+      <c r="K391" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -13771,6 +14946,9 @@
       <c r="J392" t="n">
         <v>-0.5999999999999999</v>
       </c>
+      <c r="K392" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -13805,6 +14983,9 @@
       <c r="J393" t="n">
         <v>-0.2424242424242424</v>
       </c>
+      <c r="K393" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -13839,6 +15020,9 @@
       <c r="J394" t="n">
         <v>-0.4814814814814814</v>
       </c>
+      <c r="K394" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -13873,6 +15057,9 @@
       <c r="J395" t="n">
         <v>-0.2105263157894737</v>
       </c>
+      <c r="K395" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -13907,6 +15094,9 @@
       <c r="J396" t="n">
         <v>-2.25</v>
       </c>
+      <c r="K396" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -13941,6 +15131,9 @@
       <c r="J397" t="n">
         <v>0.3461538461538461</v>
       </c>
+      <c r="K397" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -13975,6 +15168,9 @@
       <c r="J398" t="n">
         <v>-0.4027777777777777</v>
       </c>
+      <c r="K398" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -14009,6 +15205,9 @@
       <c r="J399" t="n">
         <v>0.0625</v>
       </c>
+      <c r="K399" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -14043,6 +15242,9 @@
       <c r="J400" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K400" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -14077,6 +15279,9 @@
       <c r="J401" t="n">
         <v>-0.5789473684210527</v>
       </c>
+      <c r="K401" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -14111,6 +15316,9 @@
       <c r="J402" t="n">
         <v>-0.6333333333333333</v>
       </c>
+      <c r="K402" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -14145,6 +15353,9 @@
       <c r="J403" t="n">
         <v>-0.7631578947368423</v>
       </c>
+      <c r="K403" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -14179,6 +15390,9 @@
       <c r="J404" t="n">
         <v>-0.8928571428571429</v>
       </c>
+      <c r="K404" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -14213,6 +15427,9 @@
       <c r="J405" t="n">
         <v>-0.2727272727272727</v>
       </c>
+      <c r="K405" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -14247,6 +15464,9 @@
       <c r="J406" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K406" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -14281,6 +15501,9 @@
       <c r="J407" t="n">
         <v>-0.338709677419355</v>
       </c>
+      <c r="K407" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -14315,6 +15538,9 @@
       <c r="J408" t="n">
         <v>0.6923076923076923</v>
       </c>
+      <c r="K408" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -14349,6 +15575,9 @@
       <c r="J409" t="n">
         <v>0.4857142857142857</v>
       </c>
+      <c r="K409" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -14383,6 +15612,9 @@
       <c r="J410" t="n">
         <v>-0.4000000000000004</v>
       </c>
+      <c r="K410" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -14417,6 +15649,9 @@
       <c r="J411" t="n">
         <v>-0.5625</v>
       </c>
+      <c r="K411" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -14451,6 +15686,9 @@
       <c r="J412" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K412" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -14485,6 +15723,9 @@
       <c r="J413" t="n">
         <v>-0.3013698630136987</v>
       </c>
+      <c r="K413" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -14519,6 +15760,9 @@
       <c r="J414" t="n">
         <v>0.03125</v>
       </c>
+      <c r="K414" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -14553,6 +15797,9 @@
       <c r="J415" t="n">
         <v>-0.2413793103448276</v>
       </c>
+      <c r="K415" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -14587,6 +15834,9 @@
       <c r="J416" t="n">
         <v>-0.5333333333333333</v>
       </c>
+      <c r="K416" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -14621,6 +15871,9 @@
       <c r="J417" t="n">
         <v>-0.5897435897435898</v>
       </c>
+      <c r="K417" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -14655,6 +15908,9 @@
       <c r="J418" t="n">
         <v>-0.3880597014925373</v>
       </c>
+      <c r="K418" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -14689,6 +15945,9 @@
       <c r="J419" t="n">
         <v>-0.8461538461538463</v>
       </c>
+      <c r="K419" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -14723,6 +15982,9 @@
       <c r="J420" t="n">
         <v>0</v>
       </c>
+      <c r="K420" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -14757,6 +16019,9 @@
       <c r="J421" t="n">
         <v>-0.09302325581395354</v>
       </c>
+      <c r="K421" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -14791,6 +16056,9 @@
       <c r="J422" t="n">
         <v>-0.4736842105263158</v>
       </c>
+      <c r="K422" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -14825,6 +16093,9 @@
       <c r="J423" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K423" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -14859,6 +16130,9 @@
       <c r="J424" t="n">
         <v>1.5</v>
       </c>
+      <c r="K424" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -14893,6 +16167,9 @@
       <c r="J425" t="n">
         <v>-1.052631578947368</v>
       </c>
+      <c r="K425" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -14927,6 +16204,9 @@
       <c r="J426" t="n">
         <v>-0.1346153846153846</v>
       </c>
+      <c r="K426" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -14961,6 +16241,9 @@
       <c r="J427" t="n">
         <v>-2</v>
       </c>
+      <c r="K427" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -14995,6 +16278,9 @@
       <c r="J428" t="n">
         <v>-1</v>
       </c>
+      <c r="K428" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -15029,6 +16315,9 @@
       <c r="J429" t="n">
         <v>-0.9166666666666665</v>
       </c>
+      <c r="K429" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -15063,6 +16352,9 @@
       <c r="J430" t="n">
         <v>-1.388888888888889</v>
       </c>
+      <c r="K430" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -15097,6 +16389,9 @@
       <c r="J431" t="n">
         <v>-0.8333333333333333</v>
       </c>
+      <c r="K431" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -15131,6 +16426,9 @@
       <c r="J432" t="n">
         <v>-0.5599999999999998</v>
       </c>
+      <c r="K432" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -15165,6 +16463,9 @@
       <c r="J433" t="n">
         <v>-0.3125</v>
       </c>
+      <c r="K433" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -15199,6 +16500,9 @@
       <c r="J434" t="n">
         <v>-0.7142857142857143</v>
       </c>
+      <c r="K434" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -15233,6 +16537,9 @@
       <c r="J435" t="n">
         <v>-0.6000000000000001</v>
       </c>
+      <c r="K435" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -15267,6 +16574,9 @@
       <c r="J436" t="n">
         <v>-0.3999999999999999</v>
       </c>
+      <c r="K436" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -15301,6 +16611,9 @@
       <c r="J437" t="n">
         <v>1</v>
       </c>
+      <c r="K437" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -15335,6 +16648,9 @@
       <c r="J438" t="n">
         <v>-0.375</v>
       </c>
+      <c r="K438" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -15369,6 +16685,9 @@
       <c r="J439" t="n">
         <v>-0.4878048780487805</v>
       </c>
+      <c r="K439" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -15403,6 +16722,9 @@
       <c r="J440" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K440" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -15437,6 +16759,9 @@
       <c r="J441" t="n">
         <v>-0.0357142857142857</v>
       </c>
+      <c r="K441" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -15471,6 +16796,9 @@
       <c r="J442" t="n">
         <v>-0.8235294117647056</v>
       </c>
+      <c r="K442" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -15505,6 +16833,9 @@
       <c r="J443" t="n">
         <v>-0.4642857142857142</v>
       </c>
+      <c r="K443" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -15539,6 +16870,9 @@
       <c r="J444" t="n">
         <v>-0.6363636363636362</v>
       </c>
+      <c r="K444" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -15573,6 +16907,9 @@
       <c r="J445" t="n">
         <v>-0.5714285714285714</v>
       </c>
+      <c r="K445" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -15607,6 +16944,9 @@
       <c r="J446" t="n">
         <v>-0.1617647058823529</v>
       </c>
+      <c r="K446" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -15641,6 +16981,9 @@
       <c r="J447" t="n">
         <v>-0.3225806451612903</v>
       </c>
+      <c r="K447" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -15675,6 +17018,9 @@
       <c r="J448" t="n">
         <v>-1.166666666666666</v>
       </c>
+      <c r="K448" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -15709,6 +17055,9 @@
       <c r="J449" t="n">
         <v>-1.833333333333333</v>
       </c>
+      <c r="K449" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -15743,6 +17092,9 @@
       <c r="J450" t="n">
         <v>-0.3466666666666667</v>
       </c>
+      <c r="K450" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -15777,6 +17129,9 @@
       <c r="J451" t="n">
         <v>-1</v>
       </c>
+      <c r="K451" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -15811,6 +17166,9 @@
       <c r="J452" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K452" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -15845,6 +17203,9 @@
       <c r="J453" t="n">
         <v>0.1333333333333333</v>
       </c>
+      <c r="K453" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -15879,6 +17240,9 @@
       <c r="J454" t="n">
         <v>-0.5000000000000001</v>
       </c>
+      <c r="K454" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -15913,6 +17277,9 @@
       <c r="J455" t="n">
         <v>-0.1944444444444444</v>
       </c>
+      <c r="K455" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -15947,6 +17314,9 @@
       <c r="J456" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K456" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -15981,6 +17351,9 @@
       <c r="J457" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K457" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -16015,6 +17388,9 @@
       <c r="J458" t="n">
         <v>-0.09230769230769231</v>
       </c>
+      <c r="K458" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -16049,6 +17425,9 @@
       <c r="J459" t="n">
         <v>-0.4666666666666667</v>
       </c>
+      <c r="K459" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -16083,6 +17462,9 @@
       <c r="J460" t="n">
         <v>-0.4090909090909091</v>
       </c>
+      <c r="K460" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -16117,6 +17499,9 @@
       <c r="J461" t="n">
         <v>-0.3478260869565218</v>
       </c>
+      <c r="K461" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -16151,6 +17536,9 @@
       <c r="J462" t="n">
         <v>-1</v>
       </c>
+      <c r="K462" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -16185,6 +17573,9 @@
       <c r="J463" t="n">
         <v>-0.7142857142857143</v>
       </c>
+      <c r="K463" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -16219,6 +17610,9 @@
       <c r="J464" t="n">
         <v>-0.1111111111111111</v>
       </c>
+      <c r="K464" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -16253,6 +17647,9 @@
       <c r="J465" t="n">
         <v>-0.55</v>
       </c>
+      <c r="K465" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -16287,6 +17684,9 @@
       <c r="J466" t="n">
         <v>0.2647058823529412</v>
       </c>
+      <c r="K466" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -16321,6 +17721,9 @@
       <c r="J467" t="n">
         <v>-0.282051282051282</v>
       </c>
+      <c r="K467" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -16355,6 +17758,9 @@
       <c r="J468" t="n">
         <v>0.625</v>
       </c>
+      <c r="K468" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -16389,6 +17795,9 @@
       <c r="J469" t="n">
         <v>0.04000000000000004</v>
       </c>
+      <c r="K469" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -16423,6 +17832,9 @@
       <c r="J470" t="n">
         <v>-0.5714285714285714</v>
       </c>
+      <c r="K470" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -16457,6 +17869,9 @@
       <c r="J471" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K471" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -16491,6 +17906,9 @@
       <c r="J472" t="n">
         <v>-1.571428571428572</v>
       </c>
+      <c r="K472" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -16525,6 +17943,9 @@
       <c r="J473" t="n">
         <v>0.2307692307692307</v>
       </c>
+      <c r="K473" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -16559,6 +17980,9 @@
       <c r="J474" t="n">
         <v>0.9428571428571428</v>
       </c>
+      <c r="K474" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -16593,6 +18017,9 @@
       <c r="J475" t="n">
         <v>-1</v>
       </c>
+      <c r="K475" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -16627,6 +18054,9 @@
       <c r="J476" t="n">
         <v>0.4722222222222222</v>
       </c>
+      <c r="K476" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -16661,6 +18091,9 @@
       <c r="J477" t="n">
         <v>-0.3478260869565217</v>
       </c>
+      <c r="K477" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -16695,6 +18128,9 @@
       <c r="J478" t="n">
         <v>0.9130434782608696</v>
       </c>
+      <c r="K478" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -16729,6 +18165,9 @@
       <c r="J479" t="n">
         <v>-0.3538461538461539</v>
       </c>
+      <c r="K479" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -16763,6 +18202,9 @@
       <c r="J480" t="n">
         <v>-0.5555555555555554</v>
       </c>
+      <c r="K480" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -16797,6 +18239,9 @@
       <c r="J481" t="n">
         <v>-0.1111111111111112</v>
       </c>
+      <c r="K481" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -16831,6 +18276,9 @@
       <c r="J482" t="n">
         <v>-0.6285714285714286</v>
       </c>
+      <c r="K482" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -16865,6 +18313,9 @@
       <c r="J483" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K483" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -16899,6 +18350,9 @@
       <c r="J484" t="n">
         <v>-0.5072463768115942</v>
       </c>
+      <c r="K484" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -16933,6 +18387,9 @@
       <c r="J485" t="n">
         <v>-0.4259259259259259</v>
       </c>
+      <c r="K485" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -16967,6 +18424,9 @@
       <c r="J486" t="n">
         <v>-2.25</v>
       </c>
+      <c r="K486" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -17001,6 +18461,9 @@
       <c r="J487" t="n">
         <v>-1</v>
       </c>
+      <c r="K487" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -17035,6 +18498,9 @@
       <c r="J488" t="n">
         <v>-1.409090909090909</v>
       </c>
+      <c r="K488" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -17069,6 +18535,9 @@
       <c r="J489" t="n">
         <v>0</v>
       </c>
+      <c r="K489" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -17103,6 +18572,9 @@
       <c r="J490" t="n">
         <v>-0.367816091954023</v>
       </c>
+      <c r="K490" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -17137,6 +18609,9 @@
       <c r="J491" t="n">
         <v>-0.7777777777777777</v>
       </c>
+      <c r="K491" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -17171,6 +18646,9 @@
       <c r="J492" t="n">
         <v>1.757575757575757</v>
       </c>
+      <c r="K492" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -17205,6 +18683,9 @@
       <c r="J493" t="n">
         <v>-0.1428571428571429</v>
       </c>
+      <c r="K493" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -17239,6 +18720,9 @@
       <c r="J494" t="n">
         <v>1.5</v>
       </c>
+      <c r="K494" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -17273,6 +18757,9 @@
       <c r="J495" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K495" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -17307,6 +18794,9 @@
       <c r="J496" t="n">
         <v>-0.2073170731707317</v>
       </c>
+      <c r="K496" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -17341,6 +18831,9 @@
       <c r="J497" t="n">
         <v>-0.1470588235294117</v>
       </c>
+      <c r="K497" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -17375,6 +18868,9 @@
       <c r="J498" t="n">
         <v>-0.5555555555555556</v>
       </c>
+      <c r="K498" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -17409,6 +18905,9 @@
       <c r="J499" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K499" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -17443,6 +18942,9 @@
       <c r="J500" t="n">
         <v>0.3666666666666666</v>
       </c>
+      <c r="K500" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -17477,6 +18979,9 @@
       <c r="J501" t="n">
         <v>1.424242424242424</v>
       </c>
+      <c r="K501" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -17511,6 +19016,9 @@
       <c r="J502" t="n">
         <v>-0.04166666666666663</v>
       </c>
+      <c r="K502" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -17545,6 +19053,9 @@
       <c r="J503" t="n">
         <v>-0.3055555555555554</v>
       </c>
+      <c r="K503" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -17579,6 +19090,9 @@
       <c r="J504" t="n">
         <v>-0.2857142857142858</v>
       </c>
+      <c r="K504" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -17613,6 +19127,9 @@
       <c r="J505" t="n">
         <v>-0.09302325581395354</v>
       </c>
+      <c r="K505" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -17647,6 +19164,9 @@
       <c r="J506" t="n">
         <v>-0.9999999999999999</v>
       </c>
+      <c r="K506" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -17681,6 +19201,9 @@
       <c r="J507" t="n">
         <v>-0.4285714285714288</v>
       </c>
+      <c r="K507" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -17715,6 +19238,9 @@
       <c r="J508" t="n">
         <v>-0.59375</v>
       </c>
+      <c r="K508" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -17749,6 +19275,9 @@
       <c r="J509" t="n">
         <v>-0.763157894736842</v>
       </c>
+      <c r="K509" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -17783,6 +19312,9 @@
       <c r="J510" t="n">
         <v>0</v>
       </c>
+      <c r="K510" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -17817,6 +19349,9 @@
       <c r="J511" t="n">
         <v>-0.6486486486486487</v>
       </c>
+      <c r="K511" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -17851,6 +19386,9 @@
       <c r="J512" t="n">
         <v>-0.3684210526315789</v>
       </c>
+      <c r="K512" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -17885,6 +19423,9 @@
       <c r="J513" t="n">
         <v>-0.875</v>
       </c>
+      <c r="K513" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -17919,6 +19460,9 @@
       <c r="J514" t="n">
         <v>-3</v>
       </c>
+      <c r="K514" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -17953,6 +19497,9 @@
       <c r="J515" t="n">
         <v>-1.6</v>
       </c>
+      <c r="K515" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -17987,6 +19534,9 @@
       <c r="J516" t="n">
         <v>-1.222222222222222</v>
       </c>
+      <c r="K516" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -18021,6 +19571,9 @@
       <c r="J517" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K517" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -18055,6 +19608,9 @@
       <c r="J518" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K518" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -18089,6 +19645,9 @@
       <c r="J519" t="n">
         <v>0</v>
       </c>
+      <c r="K519" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -18123,6 +19682,9 @@
       <c r="J520" t="n">
         <v>-0.8333333333333333</v>
       </c>
+      <c r="K520" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -18157,6 +19719,9 @@
       <c r="J521" t="n">
         <v>-1</v>
       </c>
+      <c r="K521" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -18191,6 +19756,9 @@
       <c r="J522" t="n">
         <v>-0.6</v>
       </c>
+      <c r="K522" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -18225,6 +19793,9 @@
       <c r="J523" t="n">
         <v>-0.5499999999999999</v>
       </c>
+      <c r="K523" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -18259,6 +19830,9 @@
       <c r="J524" t="n">
         <v>-0.5555555555555556</v>
       </c>
+      <c r="K524" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -18293,6 +19867,9 @@
       <c r="J525" t="n">
         <v>1.161290322580645</v>
       </c>
+      <c r="K525" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -18327,6 +19904,9 @@
       <c r="J526" t="n">
         <v>-0.3555555555555556</v>
       </c>
+      <c r="K526" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -18361,6 +19941,9 @@
       <c r="J527" t="n">
         <v>-0.6086956521739131</v>
       </c>
+      <c r="K527" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -18395,6 +19978,9 @@
       <c r="J528" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K528" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -18429,6 +20015,9 @@
       <c r="J529" t="n">
         <v>-0.2222222222222223</v>
       </c>
+      <c r="K529" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -18463,6 +20052,9 @@
       <c r="J530" t="n">
         <v>-1.384615384615385</v>
       </c>
+      <c r="K530" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -18497,6 +20089,9 @@
       <c r="J531" t="n">
         <v>-0.5555555555555556</v>
       </c>
+      <c r="K531" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -18531,6 +20126,9 @@
       <c r="J532" t="n">
         <v>0.3333333333333335</v>
       </c>
+      <c r="K532" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -18565,6 +20163,9 @@
       <c r="J533" t="n">
         <v>-0.06060606060606055</v>
       </c>
+      <c r="K533" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -18599,6 +20200,9 @@
       <c r="J534" t="n">
         <v>-0.4848484848484849</v>
       </c>
+      <c r="K534" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -18633,6 +20237,9 @@
       <c r="J535" t="n">
         <v>-0.2727272727272727</v>
       </c>
+      <c r="K535" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -18667,6 +20274,9 @@
       <c r="J536" t="n">
         <v>-0.2567567567567568</v>
       </c>
+      <c r="K536" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -18701,6 +20311,9 @@
       <c r="J537" t="n">
         <v>-0.7999999999999999</v>
       </c>
+      <c r="K537" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -18735,6 +20348,9 @@
       <c r="J538" t="n">
         <v>-0.1388888888888889</v>
       </c>
+      <c r="K538" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -18769,6 +20385,9 @@
       <c r="J539" t="n">
         <v>-0.3076923076923075</v>
       </c>
+      <c r="K539" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -18803,6 +20422,9 @@
       <c r="J540" t="n">
         <v>0.1714285714285714</v>
       </c>
+      <c r="K540" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -18837,6 +20459,9 @@
       <c r="J541" t="n">
         <v>-0.7307692307692307</v>
       </c>
+      <c r="K541" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -18871,6 +20496,9 @@
       <c r="J542" t="n">
         <v>-0.3636363636363636</v>
       </c>
+      <c r="K542" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -18905,6 +20533,9 @@
       <c r="J543" t="n">
         <v>-0.6551724137931034</v>
       </c>
+      <c r="K543" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -18939,6 +20570,9 @@
       <c r="J544" t="n">
         <v>0</v>
       </c>
+      <c r="K544" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -18973,6 +20607,9 @@
       <c r="J545" t="n">
         <v>0</v>
       </c>
+      <c r="K545" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -19007,6 +20644,9 @@
       <c r="J546" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K546" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -19041,6 +20681,9 @@
       <c r="J547" t="n">
         <v>-0.4705882352941178</v>
       </c>
+      <c r="K547" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -19075,6 +20718,9 @@
       <c r="J548" t="n">
         <v>0.1052631578947369</v>
       </c>
+      <c r="K548" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -19109,6 +20755,9 @@
       <c r="J549" t="n">
         <v>-1.285714285714286</v>
       </c>
+      <c r="K549" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -19143,6 +20792,9 @@
       <c r="J550" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K550" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -19177,6 +20829,9 @@
       <c r="J551" t="n">
         <v>1.15</v>
       </c>
+      <c r="K551" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -19211,6 +20866,9 @@
       <c r="J552" t="n">
         <v>-0.7999999999999998</v>
       </c>
+      <c r="K552" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -19245,6 +20903,9 @@
       <c r="J553" t="n">
         <v>-0.1818181818181818</v>
       </c>
+      <c r="K553" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -19279,6 +20940,9 @@
       <c r="J554" t="n">
         <v>-0.32</v>
       </c>
+      <c r="K554" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -19313,6 +20977,9 @@
       <c r="J555" t="n">
         <v>-0.1621621621621622</v>
       </c>
+      <c r="K555" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -19347,6 +21014,9 @@
       <c r="J556" t="n">
         <v>0.1351351351351351</v>
       </c>
+      <c r="K556" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -19381,6 +21051,9 @@
       <c r="J557" t="n">
         <v>-0.71875</v>
       </c>
+      <c r="K557" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -19415,6 +21088,9 @@
       <c r="J558" t="n">
         <v>-1.571428571428571</v>
       </c>
+      <c r="K558" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -19449,6 +21125,9 @@
       <c r="J559" t="n">
         <v>-0.07692307692307693</v>
       </c>
+      <c r="K559" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -19483,6 +21162,9 @@
       <c r="J560" t="n">
         <v>-0.1515151515151514</v>
       </c>
+      <c r="K560" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -19517,6 +21199,9 @@
       <c r="J561" t="n">
         <v>-0.6875</v>
       </c>
+      <c r="K561" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -19551,6 +21236,9 @@
       <c r="J562" t="n">
         <v>-1.117647058823529</v>
       </c>
+      <c r="K562" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -19585,6 +21273,9 @@
       <c r="J563" t="n">
         <v>-0.3809523809523808</v>
       </c>
+      <c r="K563" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -19619,6 +21310,9 @@
       <c r="J564" t="n">
         <v>-1.076923076923077</v>
       </c>
+      <c r="K564" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -19653,6 +21347,9 @@
       <c r="J565" t="n">
         <v>-0.4473684210526315</v>
       </c>
+      <c r="K565" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -19687,6 +21384,9 @@
       <c r="J566" t="n">
         <v>-0.7272727272727273</v>
       </c>
+      <c r="K566" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -19721,6 +21421,9 @@
       <c r="J567" t="n">
         <v>-1</v>
       </c>
+      <c r="K567" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -19755,6 +21458,9 @@
       <c r="J568" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K568" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -19789,6 +21495,9 @@
       <c r="J569" t="n">
         <v>-1.666666666666666</v>
       </c>
+      <c r="K569" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -19823,6 +21532,9 @@
       <c r="J570" t="n">
         <v>-0.05405405405405406</v>
       </c>
+      <c r="K570" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -19857,6 +21569,9 @@
       <c r="J571" t="n">
         <v>-1</v>
       </c>
+      <c r="K571" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -19891,6 +21606,9 @@
       <c r="J572" t="n">
         <v>-0.6774193548387097</v>
       </c>
+      <c r="K572" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -19925,6 +21643,9 @@
       <c r="J573" t="n">
         <v>-0.1111111111111112</v>
       </c>
+      <c r="K573" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -19959,6 +21680,9 @@
       <c r="J574" t="n">
         <v>-0.6153846153846154</v>
       </c>
+      <c r="K574" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -19993,6 +21717,9 @@
       <c r="J575" t="n">
         <v>-0.9999999999999998</v>
       </c>
+      <c r="K575" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -20027,6 +21754,9 @@
       <c r="J576" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K576" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -20061,6 +21791,9 @@
       <c r="J577" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K577" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -20095,6 +21828,9 @@
       <c r="J578" t="n">
         <v>-0.35</v>
       </c>
+      <c r="K578" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -20129,6 +21865,9 @@
       <c r="J579" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="K579" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -20163,6 +21902,9 @@
       <c r="J580" t="n">
         <v>0.2222222222222222</v>
       </c>
+      <c r="K580" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -20197,6 +21939,9 @@
       <c r="J581" t="n">
         <v>-0.2647058823529413</v>
       </c>
+      <c r="K581" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -20231,6 +21976,9 @@
       <c r="J582" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K582" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -20265,6 +22013,9 @@
       <c r="J583" t="n">
         <v>-0.6153846153846154</v>
       </c>
+      <c r="K583" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -20299,6 +22050,9 @@
       <c r="J584" t="n">
         <v>-1.166666666666667</v>
       </c>
+      <c r="K584" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -20333,6 +22087,9 @@
       <c r="J585" t="n">
         <v>-0.4125000000000001</v>
       </c>
+      <c r="K585" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -20367,6 +22124,9 @@
       <c r="J586" t="n">
         <v>-1.555555555555555</v>
       </c>
+      <c r="K586" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -20401,6 +22161,9 @@
       <c r="J587" t="n">
         <v>0</v>
       </c>
+      <c r="K587" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -20435,6 +22198,9 @@
       <c r="J588" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K588" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -20469,6 +22235,9 @@
       <c r="J589" t="n">
         <v>-1</v>
       </c>
+      <c r="K589" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -20503,6 +22272,9 @@
       <c r="J590" t="n">
         <v>0</v>
       </c>
+      <c r="K590" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -20537,6 +22309,9 @@
       <c r="J591" t="n">
         <v>-0.5540540540540541</v>
       </c>
+      <c r="K591" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -20571,6 +22346,9 @@
       <c r="J592" t="n">
         <v>-0.2941176470588234</v>
       </c>
+      <c r="K592" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -20605,6 +22383,9 @@
       <c r="J593" t="n">
         <v>-0.3636363636363636</v>
       </c>
+      <c r="K593" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -20639,6 +22420,9 @@
       <c r="J594" t="n">
         <v>-0.125</v>
       </c>
+      <c r="K594" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -20673,6 +22457,9 @@
       <c r="J595" t="n">
         <v>-0.4509803921568628</v>
       </c>
+      <c r="K595" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -20707,6 +22494,9 @@
       <c r="J596" t="n">
         <v>-2</v>
       </c>
+      <c r="K596" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -20741,6 +22531,9 @@
       <c r="J597" t="n">
         <v>1</v>
       </c>
+      <c r="K597" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -20775,6 +22568,9 @@
       <c r="J598" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="K598" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -20809,6 +22605,9 @@
       <c r="J599" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K599" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -20843,6 +22642,9 @@
       <c r="J600" t="n">
         <v>-0.6111111111111112</v>
       </c>
+      <c r="K600" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -20877,6 +22679,9 @@
       <c r="J601" t="n">
         <v>-0.5384615384615384</v>
       </c>
+      <c r="K601" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -20911,6 +22716,9 @@
       <c r="J602" t="n">
         <v>-1</v>
       </c>
+      <c r="K602" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -20945,6 +22753,9 @@
       <c r="J603" t="n">
         <v>-3</v>
       </c>
+      <c r="K603" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -20979,6 +22790,9 @@
       <c r="J604" t="n">
         <v>0.303030303030303</v>
       </c>
+      <c r="K604" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -21013,6 +22827,9 @@
       <c r="J605" t="n">
         <v>-0.421875</v>
       </c>
+      <c r="K605" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -21047,6 +22864,9 @@
       <c r="J606" t="n">
         <v>0.5263157894736843</v>
       </c>
+      <c r="K606" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -21081,6 +22901,9 @@
       <c r="J607" t="n">
         <v>-0.4444444444444445</v>
       </c>
+      <c r="K607" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -21115,6 +22938,9 @@
       <c r="J608" t="n">
         <v>-0.2999999999999999</v>
       </c>
+      <c r="K608" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -21149,6 +22975,9 @@
       <c r="J609" t="n">
         <v>-0.7777777777777778</v>
       </c>
+      <c r="K609" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -21183,6 +23012,9 @@
       <c r="J610" t="n">
         <v>-1</v>
       </c>
+      <c r="K610" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -21217,6 +23049,9 @@
       <c r="J611" t="n">
         <v>-0.4166666666666666</v>
       </c>
+      <c r="K611" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -21251,6 +23086,9 @@
       <c r="J612" t="n">
         <v>-1.857142857142857</v>
       </c>
+      <c r="K612" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -21285,6 +23123,9 @@
       <c r="J613" t="n">
         <v>-1.833333333333333</v>
       </c>
+      <c r="K613" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -21319,6 +23160,9 @@
       <c r="J614" t="n">
         <v>-0.3888888888888888</v>
       </c>
+      <c r="K614" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -21353,6 +23197,9 @@
       <c r="J615" t="n">
         <v>-1</v>
       </c>
+      <c r="K615" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -21387,6 +23234,9 @@
       <c r="J616" t="n">
         <v>-0.4666666666666666</v>
       </c>
+      <c r="K616" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -21421,6 +23271,9 @@
       <c r="J617" t="n">
         <v>-0.2083333333333333</v>
       </c>
+      <c r="K617" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -21455,6 +23308,9 @@
       <c r="J618" t="n">
         <v>-0.07894736842105265</v>
       </c>
+      <c r="K618" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -21489,6 +23345,9 @@
       <c r="J619" t="n">
         <v>0</v>
       </c>
+      <c r="K619" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -21523,6 +23382,9 @@
       <c r="J620" t="n">
         <v>-0.7419354838709677</v>
       </c>
+      <c r="K620" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -21557,6 +23419,9 @@
       <c r="J621" t="n">
         <v>-0.9772727272727272</v>
       </c>
+      <c r="K621" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -21591,6 +23456,9 @@
       <c r="J622" t="n">
         <v>-0.2258064516129032</v>
       </c>
+      <c r="K622" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -21625,6 +23493,9 @@
       <c r="J623" t="n">
         <v>-0.5862068965517242</v>
       </c>
+      <c r="K623" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -21659,6 +23530,9 @@
       <c r="J624" t="n">
         <v>-1.764705882352941</v>
       </c>
+      <c r="K624" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -21693,6 +23567,9 @@
       <c r="J625" t="n">
         <v>-0.4363636363636363</v>
       </c>
+      <c r="K625" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -21727,6 +23604,9 @@
       <c r="J626" t="n">
         <v>-0.5625</v>
       </c>
+      <c r="K626" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -21761,6 +23641,9 @@
       <c r="J627" t="n">
         <v>0.09090909090909094</v>
       </c>
+      <c r="K627" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -21795,6 +23678,9 @@
       <c r="J628" t="n">
         <v>-0.1466666666666667</v>
       </c>
+      <c r="K628" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -21829,6 +23715,9 @@
       <c r="J629" t="n">
         <v>0</v>
       </c>
+      <c r="K629" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -21863,6 +23752,9 @@
       <c r="J630" t="n">
         <v>-0.333333333333333</v>
       </c>
+      <c r="K630" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -21897,6 +23789,9 @@
       <c r="J631" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K631" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -21931,6 +23826,9 @@
       <c r="J632" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K632" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -21965,6 +23863,9 @@
       <c r="J633" t="n">
         <v>-1</v>
       </c>
+      <c r="K633" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -21999,6 +23900,9 @@
       <c r="J634" t="n">
         <v>0</v>
       </c>
+      <c r="K634" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -22033,6 +23937,9 @@
       <c r="J635" t="n">
         <v>-0.6</v>
       </c>
+      <c r="K635" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -22067,6 +23974,9 @@
       <c r="J636" t="n">
         <v>-0.4375</v>
       </c>
+      <c r="K636" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -22101,6 +24011,9 @@
       <c r="J637" t="n">
         <v>0.3829787234042553</v>
       </c>
+      <c r="K637" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -22135,6 +24048,9 @@
       <c r="J638" t="n">
         <v>-0.4230769230769231</v>
       </c>
+      <c r="K638" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -22169,6 +24085,9 @@
       <c r="J639" t="n">
         <v>-0.5714285714285714</v>
       </c>
+      <c r="K639" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -22203,6 +24122,9 @@
       <c r="J640" t="n">
         <v>-0.5609756097560976</v>
       </c>
+      <c r="K640" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -22237,6 +24159,9 @@
       <c r="J641" t="n">
         <v>-0.388888888888889</v>
       </c>
+      <c r="K641" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -22271,6 +24196,9 @@
       <c r="J642" t="n">
         <v>-0.7000000000000001</v>
       </c>
+      <c r="K642" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -22305,6 +24233,9 @@
       <c r="J643" t="n">
         <v>-0.5454545454545454</v>
       </c>
+      <c r="K643" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -22339,6 +24270,9 @@
       <c r="J644" t="n">
         <v>0</v>
       </c>
+      <c r="K644" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -22373,6 +24307,9 @@
       <c r="J645" t="n">
         <v>-0.2173913043478261</v>
       </c>
+      <c r="K645" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -22407,6 +24344,9 @@
       <c r="J646" t="n">
         <v>1</v>
       </c>
+      <c r="K646" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -22441,6 +24381,9 @@
       <c r="J647" t="n">
         <v>-0.3461538461538463</v>
       </c>
+      <c r="K647" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -22475,6 +24418,9 @@
       <c r="J648" t="n">
         <v>0.0930232558139535</v>
       </c>
+      <c r="K648" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -22509,6 +24455,9 @@
       <c r="J649" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="K649" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -22543,6 +24492,9 @@
       <c r="J650" t="n">
         <v>-5</v>
       </c>
+      <c r="K650" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -22577,6 +24529,9 @@
       <c r="J651" t="n">
         <v>-0.1111111111111112</v>
       </c>
+      <c r="K651" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -22611,6 +24566,9 @@
       <c r="J652" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K652" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -22645,6 +24603,9 @@
       <c r="J653" t="n">
         <v>-0.4285714285714285</v>
       </c>
+      <c r="K653" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -22679,6 +24640,9 @@
       <c r="J654" t="n">
         <v>-0.1688311688311689</v>
       </c>
+      <c r="K654" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -22713,6 +24677,9 @@
       <c r="J655" t="n">
         <v>-0.0888888888888888</v>
       </c>
+      <c r="K655" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -22747,6 +24714,9 @@
       <c r="J656" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K656" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -22781,6 +24751,9 @@
       <c r="J657" t="n">
         <v>-0.4000000000000001</v>
       </c>
+      <c r="K657" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -22815,6 +24788,9 @@
       <c r="J658" t="n">
         <v>0</v>
       </c>
+      <c r="K658" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -22849,6 +24825,9 @@
       <c r="J659" t="n">
         <v>0</v>
       </c>
+      <c r="K659" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -22883,6 +24862,9 @@
       <c r="J660" t="n">
         <v>-0.4666666666666667</v>
       </c>
+      <c r="K660" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -22917,6 +24899,9 @@
       <c r="J661" t="n">
         <v>-0.5168539325842697</v>
       </c>
+      <c r="K661" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -22951,6 +24936,9 @@
       <c r="J662" t="n">
         <v>-0.04347826086956522</v>
       </c>
+      <c r="K662" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -22985,6 +24973,9 @@
       <c r="J663" t="n">
         <v>-0.888888888888889</v>
       </c>
+      <c r="K663" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -23019,6 +25010,9 @@
       <c r="J664" t="n">
         <v>0.4871794871794872</v>
       </c>
+      <c r="K664" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -23053,6 +25047,9 @@
       <c r="J665" t="n">
         <v>-0.9285714285714284</v>
       </c>
+      <c r="K665" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -23087,6 +25084,9 @@
       <c r="J666" t="n">
         <v>-0.3653846153846154</v>
       </c>
+      <c r="K666" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -23121,6 +25121,9 @@
       <c r="J667" t="n">
         <v>-0.5652173913043477</v>
       </c>
+      <c r="K667" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -23155,6 +25158,9 @@
       <c r="J668" t="n">
         <v>-0.323943661971831</v>
       </c>
+      <c r="K668" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -23189,6 +25195,9 @@
       <c r="J669" t="n">
         <v>1</v>
       </c>
+      <c r="K669" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -23223,6 +25232,9 @@
       <c r="J670" t="n">
         <v>-2</v>
       </c>
+      <c r="K670" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -23257,6 +25269,9 @@
       <c r="J671" t="n">
         <v>-0.1428571428571428</v>
       </c>
+      <c r="K671" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -23291,6 +25306,9 @@
       <c r="J672" t="n">
         <v>-0.6041666666666667</v>
       </c>
+      <c r="K672" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -23325,6 +25343,9 @@
       <c r="J673" t="n">
         <v>0.5</v>
       </c>
+      <c r="K673" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -23359,6 +25380,9 @@
       <c r="J674" t="n">
         <v>-0.2608695652173914</v>
       </c>
+      <c r="K674" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -23393,6 +25417,9 @@
       <c r="J675" t="n">
         <v>-0.2028985507246377</v>
       </c>
+      <c r="K675" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -23427,6 +25454,9 @@
       <c r="J676" t="n">
         <v>-0.7407407407407407</v>
       </c>
+      <c r="K676" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -23461,6 +25491,9 @@
       <c r="J677" t="n">
         <v>-0.8000000000000003</v>
       </c>
+      <c r="K677" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -23495,6 +25528,9 @@
       <c r="J678" t="n">
         <v>-0.5789473684210527</v>
       </c>
+      <c r="K678" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -23529,6 +25565,9 @@
       <c r="J679" t="n">
         <v>-1</v>
       </c>
+      <c r="K679" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -23563,6 +25602,9 @@
       <c r="J680" t="n">
         <v>-0.4714285714285714</v>
       </c>
+      <c r="K680" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -23597,6 +25639,9 @@
       <c r="J681" t="n">
         <v>-0.3333333333333335</v>
       </c>
+      <c r="K681" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -23631,6 +25676,9 @@
       <c r="J682" t="n">
         <v>0.3043478260869565</v>
       </c>
+      <c r="K682" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -23665,6 +25713,9 @@
       <c r="J683" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K683" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -23699,6 +25750,9 @@
       <c r="J684" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K684" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -23733,6 +25787,9 @@
       <c r="J685" t="n">
         <v>-0.9333333333333336</v>
       </c>
+      <c r="K685" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -23767,6 +25824,9 @@
       <c r="J686" t="n">
         <v>-0.958333333333333</v>
       </c>
+      <c r="K686" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -23801,6 +25861,9 @@
       <c r="J687" t="n">
         <v>-2</v>
       </c>
+      <c r="K687" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -23835,6 +25898,9 @@
       <c r="J688" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K688" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -23869,6 +25935,9 @@
       <c r="J689" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K689" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -23903,6 +25972,9 @@
       <c r="J690" t="n">
         <v>-0.6923076923076923</v>
       </c>
+      <c r="K690" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -23937,6 +26009,9 @@
       <c r="J691" t="n">
         <v>1.529411764705882</v>
       </c>
+      <c r="K691" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -23971,6 +26046,9 @@
       <c r="J692" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K692" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
@@ -24005,6 +26083,9 @@
       <c r="J693" t="n">
         <v>-0.12</v>
       </c>
+      <c r="K693" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -24039,6 +26120,9 @@
       <c r="J694" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="K694" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
@@ -24073,6 +26157,9 @@
       <c r="J695" t="n">
         <v>-0.1000000000000001</v>
       </c>
+      <c r="K695" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -24107,6 +26194,9 @@
       <c r="J696" t="n">
         <v>-0.7272727272727273</v>
       </c>
+      <c r="K696" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
@@ -24141,6 +26231,9 @@
       <c r="J697" t="n">
         <v>-0.275</v>
       </c>
+      <c r="K697" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
@@ -24175,6 +26268,9 @@
       <c r="J698" t="n">
         <v>0.08333333333333331</v>
       </c>
+      <c r="K698" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -24209,6 +26305,9 @@
       <c r="J699" t="n">
         <v>2.2</v>
       </c>
+      <c r="K699" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -24243,6 +26342,9 @@
       <c r="J700" t="n">
         <v>-0.3492063492063493</v>
       </c>
+      <c r="K700" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
@@ -24277,6 +26379,9 @@
       <c r="J701" t="n">
         <v>-0.4583333333333333</v>
       </c>
+      <c r="K701" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
@@ -24311,6 +26416,9 @@
       <c r="J702" t="n">
         <v>-0.3111111111111111</v>
       </c>
+      <c r="K702" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
@@ -24345,6 +26453,9 @@
       <c r="J703" t="n">
         <v>-0.3076923076923075</v>
       </c>
+      <c r="K703" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -24379,6 +26490,9 @@
       <c r="J704" t="n">
         <v>-0.3666666666666667</v>
       </c>
+      <c r="K704" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -24413,6 +26527,9 @@
       <c r="J705" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K705" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -24447,6 +26564,9 @@
       <c r="J706" t="n">
         <v>-1.8</v>
       </c>
+      <c r="K706" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
@@ -24481,6 +26601,9 @@
       <c r="J707" t="n">
         <v>-0.1379310344827586</v>
       </c>
+      <c r="K707" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -24515,6 +26638,9 @@
       <c r="J708" t="n">
         <v>-0.2380952380952381</v>
       </c>
+      <c r="K708" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -24549,6 +26675,9 @@
       <c r="J709" t="n">
         <v>-0.3521126760563381</v>
       </c>
+      <c r="K709" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -24583,6 +26712,9 @@
       <c r="J710" t="n">
         <v>-1.6</v>
       </c>
+      <c r="K710" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
@@ -24617,6 +26749,9 @@
       <c r="J711" t="n">
         <v>0.7105263157894737</v>
       </c>
+      <c r="K711" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
@@ -24651,6 +26786,9 @@
       <c r="J712" t="n">
         <v>-3.5</v>
       </c>
+      <c r="K712" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
@@ -24685,6 +26823,9 @@
       <c r="J713" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K713" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
@@ -24719,6 +26860,9 @@
       <c r="J714" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K714" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
@@ -24753,6 +26897,9 @@
       <c r="J715" t="n">
         <v>-0.4347826086956522</v>
       </c>
+      <c r="K715" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
@@ -24787,6 +26934,9 @@
       <c r="J716" t="n">
         <v>-0.5454545454545454</v>
       </c>
+      <c r="K716" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
@@ -24821,6 +26971,9 @@
       <c r="J717" t="n">
         <v>2.5</v>
       </c>
+      <c r="K717" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
@@ -24855,6 +27008,9 @@
       <c r="J718" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K718" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
@@ -24889,6 +27045,9 @@
       <c r="J719" t="n">
         <v>-0.7</v>
       </c>
+      <c r="K719" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
@@ -24923,6 +27082,9 @@
       <c r="J720" t="n">
         <v>0.9999999999999998</v>
       </c>
+      <c r="K720" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
@@ -24957,6 +27119,9 @@
       <c r="J721" t="n">
         <v>-0.3676470588235294</v>
       </c>
+      <c r="K721" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
@@ -24991,6 +27156,9 @@
       <c r="J722" t="n">
         <v>-0.2365591397849462</v>
       </c>
+      <c r="K722" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
@@ -25025,6 +27193,9 @@
       <c r="J723" t="n">
         <v>-0.2894736842105262</v>
       </c>
+      <c r="K723" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
@@ -25059,6 +27230,9 @@
       <c r="J724" t="n">
         <v>-0.9999999999999999</v>
       </c>
+      <c r="K724" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
@@ -25093,6 +27267,9 @@
       <c r="J725" t="n">
         <v>-0.5909090909090911</v>
       </c>
+      <c r="K725" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
@@ -25127,6 +27304,9 @@
       <c r="J726" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K726" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
@@ -25161,6 +27341,9 @@
       <c r="J727" t="n">
         <v>-1.1</v>
       </c>
+      <c r="K727" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
@@ -25195,6 +27378,9 @@
       <c r="J728" t="n">
         <v>-0.4925373134328359</v>
       </c>
+      <c r="K728" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -25229,6 +27415,9 @@
       <c r="J729" t="n">
         <v>-0.36</v>
       </c>
+      <c r="K729" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
@@ -25263,6 +27452,9 @@
       <c r="J730" t="n">
         <v>-0.5161290322580645</v>
       </c>
+      <c r="K730" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
@@ -25297,6 +27489,9 @@
       <c r="J731" t="n">
         <v>-1</v>
       </c>
+      <c r="K731" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
@@ -25331,6 +27526,9 @@
       <c r="J732" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K732" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
@@ -25365,6 +27563,9 @@
       <c r="J733" t="n">
         <v>-0.6470588235294118</v>
       </c>
+      <c r="K733" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
@@ -25399,6 +27600,9 @@
       <c r="J734" t="n">
         <v>-1.75</v>
       </c>
+      <c r="K734" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
@@ -25433,6 +27637,9 @@
       <c r="J735" t="n">
         <v>-0.4736842105263158</v>
       </c>
+      <c r="K735" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
@@ -25467,6 +27674,9 @@
       <c r="J736" t="n">
         <v>-0.6862745098039216</v>
       </c>
+      <c r="K736" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
@@ -25501,6 +27711,9 @@
       <c r="J737" t="n">
         <v>-0.08823529411764697</v>
       </c>
+      <c r="K737" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
@@ -25535,6 +27748,9 @@
       <c r="J738" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K738" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
@@ -25569,6 +27785,9 @@
       <c r="J739" t="n">
         <v>-1.074074074074074</v>
       </c>
+      <c r="K739" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
@@ -25603,6 +27822,9 @@
       <c r="J740" t="n">
         <v>-0.2613636363636365</v>
       </c>
+      <c r="K740" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
@@ -25637,6 +27859,9 @@
       <c r="J741" t="n">
         <v>-0.08333333333333334</v>
       </c>
+      <c r="K741" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
@@ -25671,6 +27896,9 @@
       <c r="J742" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K742" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
@@ -25705,6 +27933,9 @@
       <c r="J743" t="n">
         <v>-0.28125</v>
       </c>
+      <c r="K743" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
@@ -25739,6 +27970,9 @@
       <c r="J744" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K744" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
@@ -25773,6 +28007,9 @@
       <c r="J745" t="n">
         <v>-0.5999999999999996</v>
       </c>
+      <c r="K745" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
@@ -25807,6 +28044,9 @@
       <c r="J746" t="n">
         <v>-0.2222222222222223</v>
       </c>
+      <c r="K746" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
@@ -25841,6 +28081,9 @@
       <c r="J747" t="n">
         <v>-0.5434782608695652</v>
       </c>
+      <c r="K747" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
@@ -25875,6 +28118,9 @@
       <c r="J748" t="n">
         <v>-0.318840579710145</v>
       </c>
+      <c r="K748" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
@@ -25909,6 +28155,9 @@
       <c r="J749" t="n">
         <v>-0.1111111111111111</v>
       </c>
+      <c r="K749" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
@@ -25943,6 +28192,9 @@
       <c r="J750" t="n">
         <v>-0.4444444444444442</v>
       </c>
+      <c r="K750" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
@@ -25977,6 +28229,9 @@
       <c r="J751" t="n">
         <v>-0.28</v>
       </c>
+      <c r="K751" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
@@ -26011,6 +28266,9 @@
       <c r="J752" t="n">
         <v>-0.32</v>
       </c>
+      <c r="K752" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
@@ -26045,6 +28303,9 @@
       <c r="J753" t="n">
         <v>-0.3033707865168539</v>
       </c>
+      <c r="K753" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
@@ -26079,6 +28340,9 @@
       <c r="J754" t="n">
         <v>-0.7826086956521738</v>
       </c>
+      <c r="K754" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
@@ -26113,6 +28377,9 @@
       <c r="J755" t="n">
         <v>-0.1884057971014493</v>
       </c>
+      <c r="K755" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
@@ -26147,6 +28414,9 @@
       <c r="J756" t="n">
         <v>-0.1594202898550724</v>
       </c>
+      <c r="K756" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
@@ -26181,6 +28451,9 @@
       <c r="J757" t="n">
         <v>0</v>
       </c>
+      <c r="K757" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
@@ -26215,6 +28488,9 @@
       <c r="J758" t="n">
         <v>-0.547169811320755</v>
       </c>
+      <c r="K758" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
@@ -26249,6 +28525,9 @@
       <c r="J759" t="n">
         <v>-0.4655172413793103</v>
       </c>
+      <c r="K759" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
@@ -26283,6 +28562,9 @@
       <c r="J760" t="n">
         <v>-1.285714285714286</v>
       </c>
+      <c r="K760" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
@@ -26317,6 +28599,9 @@
       <c r="J761" t="n">
         <v>-2</v>
       </c>
+      <c r="K761" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
@@ -26351,6 +28636,9 @@
       <c r="J762" t="n">
         <v>-0.8333333333333334</v>
       </c>
+      <c r="K762" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
@@ -26385,6 +28673,9 @@
       <c r="J763" t="n">
         <v>-0.1111111111111111</v>
       </c>
+      <c r="K763" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
@@ -26419,6 +28710,9 @@
       <c r="J764" t="n">
         <v>-0.2702702702702703</v>
       </c>
+      <c r="K764" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
@@ -26453,6 +28747,9 @@
       <c r="J765" t="n">
         <v>-0.2941176470588236</v>
       </c>
+      <c r="K765" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
@@ -26487,6 +28784,9 @@
       <c r="J766" t="n">
         <v>1</v>
       </c>
+      <c r="K766" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
@@ -26521,6 +28821,9 @@
       <c r="J767" t="n">
         <v>0.0357142857142857</v>
       </c>
+      <c r="K767" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
@@ -26555,6 +28858,9 @@
       <c r="J768" t="n">
         <v>-0.2894736842105263</v>
       </c>
+      <c r="K768" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
@@ -26589,6 +28895,9 @@
       <c r="J769" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K769" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
@@ -26623,6 +28932,9 @@
       <c r="J770" t="n">
         <v>-0.3571428571428572</v>
       </c>
+      <c r="K770" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
@@ -26657,6 +28969,9 @@
       <c r="J771" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K771" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
@@ -26691,6 +29006,9 @@
       <c r="J772" t="n">
         <v>-0.2307692307692308</v>
       </c>
+      <c r="K772" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
@@ -26725,6 +29043,9 @@
       <c r="J773" t="n">
         <v>-0.3970588235294118</v>
       </c>
+      <c r="K773" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
@@ -26759,6 +29080,9 @@
       <c r="J774" t="n">
         <v>0.1538461538461539</v>
       </c>
+      <c r="K774" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
@@ -26793,6 +29117,9 @@
       <c r="J775" t="n">
         <v>-0.3500000000000001</v>
       </c>
+      <c r="K775" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="n">
@@ -26827,6 +29154,9 @@
       <c r="J776" t="n">
         <v>-0.7777777777777777</v>
       </c>
+      <c r="K776" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="1" t="n">
@@ -26861,6 +29191,9 @@
       <c r="J777" t="n">
         <v>-1</v>
       </c>
+      <c r="K777" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="1" t="n">
@@ -26895,6 +29228,9 @@
       <c r="J778" t="n">
         <v>-2</v>
       </c>
+      <c r="K778" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="1" t="n">
@@ -26929,6 +29265,9 @@
       <c r="J779" t="n">
         <v>0.1111111111111112</v>
       </c>
+      <c r="K779" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="1" t="n">
@@ -26963,6 +29302,9 @@
       <c r="J780" t="n">
         <v>-0.4054054054054054</v>
       </c>
+      <c r="K780" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="1" t="n">
@@ -26997,6 +29339,9 @@
       <c r="J781" t="n">
         <v>0.3333333333333334</v>
       </c>
+      <c r="K781" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="1" t="n">
@@ -27031,6 +29376,9 @@
       <c r="J782" t="n">
         <v>-0.08333333333333333</v>
       </c>
+      <c r="K782" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="1" t="n">
@@ -27065,6 +29413,9 @@
       <c r="J783" t="n">
         <v>-0.5735294117647058</v>
       </c>
+      <c r="K783" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="1" t="n">
@@ -27099,6 +29450,9 @@
       <c r="J784" t="n">
         <v>-1</v>
       </c>
+      <c r="K784" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="1" t="n">
@@ -27133,6 +29487,9 @@
       <c r="J785" t="n">
         <v>-0.423728813559322</v>
       </c>
+      <c r="K785" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="1" t="n">
@@ -27167,6 +29524,9 @@
       <c r="J786" t="n">
         <v>-0.3378378378378378</v>
       </c>
+      <c r="K786" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="1" t="n">
@@ -27201,6 +29561,9 @@
       <c r="J787" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K787" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="1" t="n">
@@ -27235,6 +29598,9 @@
       <c r="J788" t="n">
         <v>-0.3013698630136986</v>
       </c>
+      <c r="K788" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="1" t="n">
@@ -27269,6 +29635,9 @@
       <c r="J789" t="n">
         <v>-0.390625</v>
       </c>
+      <c r="K789" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="1" t="n">
@@ -27303,6 +29672,9 @@
       <c r="J790" t="n">
         <v>-0.5277777777777778</v>
       </c>
+      <c r="K790" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="1" t="n">
@@ -27337,6 +29709,9 @@
       <c r="J791" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K791" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="1" t="n">
@@ -27371,6 +29746,9 @@
       <c r="J792" t="n">
         <v>-0.238095238095238</v>
       </c>
+      <c r="K792" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
@@ -27405,6 +29783,9 @@
       <c r="J793" t="n">
         <v>-0.9090909090909091</v>
       </c>
+      <c r="K793" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="1" t="n">
@@ -27439,6 +29820,9 @@
       <c r="J794" t="n">
         <v>-0.3</v>
       </c>
+      <c r="K794" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="1" t="n">
@@ -27473,6 +29857,9 @@
       <c r="J795" t="n">
         <v>-0.3</v>
       </c>
+      <c r="K795" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="1" t="n">
@@ -27507,6 +29894,9 @@
       <c r="J796" t="n">
         <v>-0.3636363636363636</v>
       </c>
+      <c r="K796" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="1" t="n">
@@ -27541,6 +29931,9 @@
       <c r="J797" t="n">
         <v>-2</v>
       </c>
+      <c r="K797" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="1" t="n">
@@ -27575,6 +29968,9 @@
       <c r="J798" t="n">
         <v>0</v>
       </c>
+      <c r="K798" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="1" t="n">
@@ -27609,6 +30005,9 @@
       <c r="J799" t="n">
         <v>-0.5641025641025641</v>
       </c>
+      <c r="K799" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
@@ -27643,6 +30042,9 @@
       <c r="J800" t="n">
         <v>-1.181818181818182</v>
       </c>
+      <c r="K800" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="1" t="n">
@@ -27677,6 +30079,9 @@
       <c r="J801" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K801" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="1" t="n">
@@ -27711,6 +30116,9 @@
       <c r="J802" t="n">
         <v>0.6</v>
       </c>
+      <c r="K802" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="1" t="n">
@@ -27745,6 +30153,9 @@
       <c r="J803" t="n">
         <v>-0.2068965517241379</v>
       </c>
+      <c r="K803" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="1" t="n">
@@ -27779,6 +30190,9 @@
       <c r="J804" t="n">
         <v>-0.1153846153846154</v>
       </c>
+      <c r="K804" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="1" t="n">
@@ -27813,6 +30227,9 @@
       <c r="J805" t="n">
         <v>-0.09090909090909091</v>
       </c>
+      <c r="K805" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="1" t="n">
@@ -27847,6 +30264,9 @@
       <c r="J806" t="n">
         <v>0.25</v>
       </c>
+      <c r="K806" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
@@ -27881,6 +30301,9 @@
       <c r="J807" t="n">
         <v>0</v>
       </c>
+      <c r="K807" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="1" t="n">
@@ -27915,6 +30338,9 @@
       <c r="J808" t="n">
         <v>0.2000000000000002</v>
       </c>
+      <c r="K808" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="1" t="n">
@@ -27949,6 +30375,9 @@
       <c r="J809" t="n">
         <v>-0.6875</v>
       </c>
+      <c r="K809" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="1" t="n">
@@ -27983,6 +30412,9 @@
       <c r="J810" t="n">
         <v>-0.8478260869565216</v>
       </c>
+      <c r="K810" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="1" t="n">
@@ -28017,6 +30449,9 @@
       <c r="J811" t="n">
         <v>-0.8333333333333333</v>
       </c>
+      <c r="K811" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="1" t="n">
@@ -28051,6 +30486,9 @@
       <c r="J812" t="n">
         <v>1.37037037037037</v>
       </c>
+      <c r="K812" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="1" t="n">
@@ -28085,6 +30523,9 @@
       <c r="J813" t="n">
         <v>1.365853658536585</v>
       </c>
+      <c r="K813" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
@@ -28117,6 +30558,9 @@
       <c r="J814" t="n">
         <v>0</v>
       </c>
+      <c r="K814" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
@@ -28151,6 +30595,9 @@
       <c r="J815" t="n">
         <v>-0.6744186046511627</v>
       </c>
+      <c r="K815" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="1" t="n">
@@ -28185,6 +30632,9 @@
       <c r="J816" t="n">
         <v>0.5357142857142857</v>
       </c>
+      <c r="K816" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="1" t="n">
@@ -28219,6 +30669,9 @@
       <c r="J817" t="n">
         <v>-1.028571428571428</v>
       </c>
+      <c r="K817" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="n">
@@ -28253,6 +30706,9 @@
       <c r="J818" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K818" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
@@ -28287,6 +30743,9 @@
       <c r="J819" t="n">
         <v>-0.7142857142857143</v>
       </c>
+      <c r="K819" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="1" t="n">
@@ -28321,6 +30780,9 @@
       <c r="J820" t="n">
         <v>-0.2545454545454545</v>
       </c>
+      <c r="K820" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="1" t="n">
@@ -28355,6 +30817,9 @@
       <c r="J821" t="n">
         <v>-0.4761904761904762</v>
       </c>
+      <c r="K821" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="1" t="n">
@@ -28389,6 +30854,9 @@
       <c r="J822" t="n">
         <v>-0.2000000000000001</v>
       </c>
+      <c r="K822" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="1" t="n">
@@ -28423,6 +30891,9 @@
       <c r="J823" t="n">
         <v>-0.5090909090909091</v>
       </c>
+      <c r="K823" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="1" t="n">
@@ -28457,6 +30928,9 @@
       <c r="J824" t="n">
         <v>-0.9142857142857143</v>
       </c>
+      <c r="K824" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="1" t="n">
@@ -28491,6 +30965,9 @@
       <c r="J825" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K825" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="1" t="n">
@@ -28525,6 +31002,9 @@
       <c r="J826" t="n">
         <v>-2.142857142857142</v>
       </c>
+      <c r="K826" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="1" t="n">
@@ -28559,6 +31039,9 @@
       <c r="J827" t="n">
         <v>0.5641025641025641</v>
       </c>
+      <c r="K827" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="1" t="n">
@@ -28593,6 +31076,9 @@
       <c r="J828" t="n">
         <v>-0.5757575757575758</v>
       </c>
+      <c r="K828" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="1" t="n">
@@ -28627,6 +31113,9 @@
       <c r="J829" t="n">
         <v>-0.5714285714285714</v>
       </c>
+      <c r="K829" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="1" t="n">
@@ -28661,6 +31150,9 @@
       <c r="J830" t="n">
         <v>-0.1714285714285714</v>
       </c>
+      <c r="K830" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="1" t="n">
@@ -28695,6 +31187,9 @@
       <c r="J831" t="n">
         <v>0.1875</v>
       </c>
+      <c r="K831" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="1" t="n">
@@ -28729,6 +31224,9 @@
       <c r="J832" t="n">
         <v>-1.473684210526316</v>
       </c>
+      <c r="K832" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="1" t="n">
@@ -28763,6 +31261,9 @@
       <c r="J833" t="n">
         <v>-0.1884057971014493</v>
       </c>
+      <c r="K833" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="1" t="n">
@@ -28797,6 +31298,9 @@
       <c r="J834" t="n">
         <v>-0.6857142857142857</v>
       </c>
+      <c r="K834" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="1" t="n">
@@ -28831,6 +31335,9 @@
       <c r="J835" t="n">
         <v>-0.7058823529411765</v>
       </c>
+      <c r="K835" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="1" t="n">
@@ -28865,6 +31372,9 @@
       <c r="J836" t="n">
         <v>-0.6279069767441861</v>
       </c>
+      <c r="K836" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="1" t="n">
@@ -28899,6 +31409,9 @@
       <c r="J837" t="n">
         <v>1.441176470588235</v>
       </c>
+      <c r="K837" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="1" t="n">
@@ -28933,6 +31446,9 @@
       <c r="J838" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K838" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="1" t="n">
@@ -28967,6 +31483,9 @@
       <c r="J839" t="n">
         <v>-2.4</v>
       </c>
+      <c r="K839" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="1" t="n">
@@ -29001,6 +31520,9 @@
       <c r="J840" t="n">
         <v>-0.9230769230769231</v>
       </c>
+      <c r="K840" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="1" t="n">
@@ -29035,6 +31557,9 @@
       <c r="J841" t="n">
         <v>-1.166666666666667</v>
       </c>
+      <c r="K841" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="1" t="n">
@@ -29069,6 +31594,9 @@
       <c r="J842" t="n">
         <v>-0.7272727272727273</v>
       </c>
+      <c r="K842" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="1" t="n">
@@ -29103,6 +31631,9 @@
       <c r="J843" t="n">
         <v>-0.1836734693877551</v>
       </c>
+      <c r="K843" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
@@ -29137,6 +31668,9 @@
       <c r="J844" t="n">
         <v>-0.4150943396226415</v>
       </c>
+      <c r="K844" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="1" t="n">
@@ -29171,6 +31705,9 @@
       <c r="J845" t="n">
         <v>0.131578947368421</v>
       </c>
+      <c r="K845" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="1" t="n">
@@ -29205,6 +31742,9 @@
       <c r="J846" t="n">
         <v>-0.4347826086956523</v>
       </c>
+      <c r="K846" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="1" t="n">
@@ -29239,6 +31779,9 @@
       <c r="J847" t="n">
         <v>-0.1515151515151515</v>
       </c>
+      <c r="K847" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="1" t="n">
@@ -29273,6 +31816,9 @@
       <c r="J848" t="n">
         <v>0.05454545454545467</v>
       </c>
+      <c r="K848" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="1" t="n">
@@ -29307,6 +31853,9 @@
       <c r="J849" t="n">
         <v>-0.4090909090909092</v>
       </c>
+      <c r="K849" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="1" t="n">
@@ -29341,6 +31890,9 @@
       <c r="J850" t="n">
         <v>-0.6296296296296297</v>
       </c>
+      <c r="K850" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="1" t="n">
@@ -29375,6 +31927,9 @@
       <c r="J851" t="n">
         <v>0.05000000000000027</v>
       </c>
+      <c r="K851" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="1" t="n">
@@ -29409,6 +31964,9 @@
       <c r="J852" t="n">
         <v>-1</v>
       </c>
+      <c r="K852" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="1" t="n">
@@ -29443,6 +32001,9 @@
       <c r="J853" t="n">
         <v>-0.2419354838709677</v>
       </c>
+      <c r="K853" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="1" t="n">
@@ -29477,6 +32038,9 @@
       <c r="J854" t="n">
         <v>-0.7222222222222223</v>
       </c>
+      <c r="K854" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="1" t="n">
@@ -29511,6 +32075,9 @@
       <c r="J855" t="n">
         <v>0</v>
       </c>
+      <c r="K855" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="1" t="n">
@@ -29545,6 +32112,9 @@
       <c r="J856" t="n">
         <v>-0.65</v>
       </c>
+      <c r="K856" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="1" t="n">
@@ -29579,6 +32149,9 @@
       <c r="J857" t="n">
         <v>-0.4130434782608695</v>
       </c>
+      <c r="K857" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="1" t="n">
@@ -29613,6 +32186,9 @@
       <c r="J858" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K858" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="1" t="n">
@@ -29647,6 +32223,9 @@
       <c r="J859" t="n">
         <v>-0.5084745762711864</v>
       </c>
+      <c r="K859" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="1" t="n">
@@ -29681,6 +32260,9 @@
       <c r="J860" t="n">
         <v>-0.391304347826087</v>
       </c>
+      <c r="K860" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" s="1" t="n">
@@ -29715,6 +32297,9 @@
       <c r="J861" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K861" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="1" t="n">
@@ -29749,6 +32334,9 @@
       <c r="J862" t="n">
         <v>0.2758620689655172</v>
       </c>
+      <c r="K862" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="1" t="n">
@@ -29783,6 +32371,9 @@
       <c r="J863" t="n">
         <v>-0.375</v>
       </c>
+      <c r="K863" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="1" t="n">
@@ -29817,6 +32408,9 @@
       <c r="J864" t="n">
         <v>-0.6363636363636365</v>
       </c>
+      <c r="K864" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="1" t="n">
@@ -29851,6 +32445,9 @@
       <c r="J865" t="n">
         <v>0.08333333333333334</v>
       </c>
+      <c r="K865" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="1" t="n">
@@ -29885,6 +32482,9 @@
       <c r="J866" t="n">
         <v>-0.631578947368421</v>
       </c>
+      <c r="K866" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" s="1" t="n">
@@ -29919,6 +32519,9 @@
       <c r="J867" t="n">
         <v>-0.8888888888888888</v>
       </c>
+      <c r="K867" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" s="1" t="n">
@@ -29953,6 +32556,9 @@
       <c r="J868" t="n">
         <v>-0.1764705882352942</v>
       </c>
+      <c r="K868" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="1" t="n">
@@ -29987,6 +32593,9 @@
       <c r="J869" t="n">
         <v>-1</v>
       </c>
+      <c r="K869" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" s="1" t="n">
@@ -30021,6 +32630,9 @@
       <c r="J870" t="n">
         <v>-1.25</v>
       </c>
+      <c r="K870" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" s="1" t="n">
@@ -30055,6 +32667,9 @@
       <c r="J871" t="n">
         <v>-1.2</v>
       </c>
+      <c r="K871" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" s="1" t="n">
@@ -30089,6 +32704,9 @@
       <c r="J872" t="n">
         <v>-1.470588235294117</v>
       </c>
+      <c r="K872" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" s="1" t="n">
@@ -30123,6 +32741,9 @@
       <c r="J873" t="n">
         <v>-0.4411764705882353</v>
       </c>
+      <c r="K873" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="1" t="n">
@@ -30157,6 +32778,9 @@
       <c r="J874" t="n">
         <v>-0.8076923076923077</v>
       </c>
+      <c r="K874" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="1" t="n">
@@ -30191,6 +32815,9 @@
       <c r="J875" t="n">
         <v>-0.36</v>
       </c>
+      <c r="K875" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="1" t="n">
@@ -30225,6 +32852,9 @@
       <c r="J876" t="n">
         <v>-0.9777777777777777</v>
       </c>
+      <c r="K876" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="1" t="n">
@@ -30259,6 +32889,9 @@
       <c r="J877" t="n">
         <v>-0.7777777777777777</v>
       </c>
+      <c r="K877" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="1" t="n">
@@ -30293,6 +32926,9 @@
       <c r="J878" t="n">
         <v>-1</v>
       </c>
+      <c r="K878" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="1" t="n">
@@ -30327,6 +32963,9 @@
       <c r="J879" t="n">
         <v>-1.222222222222222</v>
       </c>
+      <c r="K879" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="1" t="n">
@@ -30361,6 +33000,9 @@
       <c r="J880" t="n">
         <v>-0.4833333333333333</v>
       </c>
+      <c r="K880" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="1" t="n">
@@ -30395,6 +33037,9 @@
       <c r="J881" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="K881" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="1" t="n">
@@ -30429,6 +33074,9 @@
       <c r="J882" t="n">
         <v>-1.285714285714286</v>
       </c>
+      <c r="K882" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="1" t="n">
@@ -30463,6 +33111,9 @@
       <c r="J883" t="n">
         <v>-0.411764705882353</v>
       </c>
+      <c r="K883" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="1" t="n">
@@ -30496,6 +33147,9 @@
       </c>
       <c r="J884" t="n">
         <v>-0.1891891891891892</v>
+      </c>
+      <c r="K884" t="n">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
